--- a/Code/R/Magnan/PerfSearch_Regression_PSF10.xlsx
+++ b/Code/R/Magnan/PerfSearch_Regression_PSF10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TenfoldCV_Coarse" sheetId="6" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="FeatureSpaceCmp" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TenfoldCV!$A$1:$J$247</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TenfoldCV_Coarse!$A$1:$I$73</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
   <si>
     <t>MCC</t>
   </si>
@@ -76,6 +77,9 @@
   </si>
   <si>
     <t>AUCPR</t>
+  </si>
+  <si>
+    <t>BEST</t>
   </si>
 </sst>
 </file>
@@ -849,23 +853,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="103372672"/>
-        <c:axId val="105604992"/>
+        <c:axId val="85250816"/>
+        <c:axId val="85252736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="103372672"/>
+        <c:axId val="85250816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105604992"/>
+        <c:crossAx val="85252736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="105604992"/>
+        <c:axId val="85252736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -873,7 +877,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103372672"/>
+        <c:crossAx val="85250816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -886,7 +890,1190 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TenfoldCV!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>TenfoldCV!$B$2:$B$247</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1075</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1025</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>TenfoldCV!$F$2:$F$247</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.73003472222222199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72829861111111105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71961805555555602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72048611111111105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72135416666666696</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72482638888888895</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7265625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73090277777777801</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72482638888888895</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.73350694444444398</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73003472222222199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.73524305555555602</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.74045138888888895</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.73871527777777801</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.74479166666666696</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75173611111111105</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.74652777777777801</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.74913194444444398</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.75607638888888895</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.75173611111111105</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.74565972222222199</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.74045138888888895</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.74305555555555602</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.74826388888888895</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.73871527777777801</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.73871527777777801</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.73697916666666696</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.7265625</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.74045138888888895</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.74826388888888895</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.74913194444444398</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.74131944444444398</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.74045138888888895</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.72916666666666696</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.72135416666666696</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.73003472222222199</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.73350694444444398</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.73090277777777801</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.73177083333333304</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.734375</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.72395833333333304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TenfoldCV!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sensitivity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>TenfoldCV!$B$2:$B$247</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1075</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1025</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>TenfoldCV!$G$2:$G$247</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.68229166666666696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68229166666666696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80381944444444398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67881944444444398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66840277777777801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78993055555555602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82638888888888895</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72222222222222199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69270833333333304</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72916666666666696</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73090277777777801</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.84027777777777801</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.75694444444444398</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.77430555555555602</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.828125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.82118055555555602</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85069444444444398</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.83333333333333304</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.78993055555555602</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.71701388888888895</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.703125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.80729166666666696</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.79513888888888895</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.75520833333333304</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.73263888888888895</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.734375</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.69270833333333304</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.77430555555555602</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.75868055555555602</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.77777777777777801</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.77256944444444398</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.78472222222222199</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.72048611111111105</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.65798611111111105</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.77604166666666696</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77256944444444398</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.76909722222222199</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.79340277777777801</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.80381944444444398</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.78125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TenfoldCV!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Specificity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>TenfoldCV!$B$2:$B$247</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1075</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1025</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>TenfoldCV!$H$2:$H$247</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.77777777777777801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77430555555555602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63541666666666696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76215277777777801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77430555555555602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65972222222222199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62673611111111105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73958333333333304</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75694444444444398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.73784722222222199</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72916666666666696</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63020833333333304</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.72395833333333304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.703125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.66145833333333304</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.68229166666666696</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.64236111111111105</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.66493055555555602</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.72222222222222199</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.78645833333333304</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.78819444444444398</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.67361111111111105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.69097222222222199</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.74131944444444398</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.74479166666666696</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.74305555555555602</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.78125</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.67881944444444398</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.72222222222222199</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.71875</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.72569444444444398</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.69791666666666696</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.76041666666666696</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.80034722222222199</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.69270833333333304</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.68402777777777801</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.69444444444444398</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.69270833333333304</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.67013888888888895</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.66493055555555602</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.66666666666666696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TenfoldCV!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>TenfoldCV!$B$2:$B$247</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1075</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1025</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>TenfoldCV!$I$2:$I$247</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.46218126047202002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45854248615683502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44560005149744297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44251139696208602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44521198789316502</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45351369567087402</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46243534515582302</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46187516727788702</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.450583354810418</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46703148510905701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.46007013778947897</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48122391667009901</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48116462267411197</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.47864466301316</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.496528124653003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.508399646566976</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.50411694869672796</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.50548306237061702</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.51333079101764201</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.50469063604168496</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.49310694499574398</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.48525822535145902</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.48877009118595899</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.49657567511814699</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.47746581532245702</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.47744854425646999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.47582715691056199</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.45520493955923502</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.48122270716047</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.497395065383334</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.49881220170381602</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.48446762166741097</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.48128662439754499</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.46304959170841498</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.44343668539022302</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.46202950126068898</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.46844565964304202</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.46315885939087698</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.46710383396608601</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.47333760197614999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.45088636669115401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="116182016"/>
+        <c:axId val="116157440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="116182016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="116157440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="116157440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="116182016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -910,6 +2097,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1214,7 +2436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1417,10 +2639,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I163"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J247"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q164" sqref="Q164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1429,29 +2652,29 @@
     <col min="7" max="8" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="B1" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1459,818 +2682,7153 @@
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="B2">
+        <v>1250</v>
+      </c>
+      <c r="C2">
+        <v>0.3</v>
+      </c>
+      <c r="D2">
+        <v>0.79792390046296302</v>
+      </c>
+      <c r="E2">
+        <v>0.41055098182884497</v>
+      </c>
+      <c r="F2">
+        <v>0.73003472222222199</v>
+      </c>
+      <c r="G2">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="H2">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="I2">
+        <v>0.46218126047202002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" hidden="1">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="B3">
+        <v>1250</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.76566116898148195</v>
+      </c>
+      <c r="E3">
+        <v>0.43495995536828203</v>
+      </c>
+      <c r="F3">
+        <v>0.70659722222222199</v>
+      </c>
+      <c r="G3">
+        <v>0.70486111111111105</v>
+      </c>
+      <c r="H3">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="I3">
+        <v>0.41319693527066897</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" hidden="1">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="B4">
+        <v>1250</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0.72970618730709902</v>
+      </c>
+      <c r="E4">
+        <v>0.56666199519611105</v>
+      </c>
+      <c r="F4">
+        <v>0.68055555555555602</v>
+      </c>
+      <c r="G4">
+        <v>0.76736111111111105</v>
+      </c>
+      <c r="H4">
+        <v>0.59375</v>
+      </c>
+      <c r="I4">
+        <v>0.36667939881128497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="B5">
+        <v>1250</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0.68382282021605001</v>
+      </c>
+      <c r="E5">
+        <v>0.54199052714057705</v>
+      </c>
+      <c r="F5">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="G5">
+        <v>0.71006944444444398</v>
+      </c>
+      <c r="H5">
+        <v>0.58159722222222199</v>
+      </c>
+      <c r="I5">
+        <v>0.29410387377387898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="B6">
+        <v>1250</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>0.63923550829475195</v>
+      </c>
+      <c r="E6">
+        <v>0.66154501654750397</v>
+      </c>
+      <c r="F6">
+        <v>0.609375</v>
+      </c>
+      <c r="G6">
+        <v>0.72048611111111105</v>
+      </c>
+      <c r="H6">
+        <v>0.49826388888888901</v>
+      </c>
+      <c r="I6">
+        <v>0.22435988490491199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1">
       <c r="A7">
         <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1250</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>0.62212155189043195</v>
+      </c>
+      <c r="E7">
+        <v>0.58955642255044405</v>
+      </c>
+      <c r="F7">
+        <v>0.59548611111111105</v>
+      </c>
+      <c r="G7">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H7">
+        <v>0.52430555555555602</v>
+      </c>
+      <c r="I7">
+        <v>0.19293732987850601</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="B8">
+        <v>1225</v>
+      </c>
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+      <c r="D8">
+        <v>0.80195674189814703</v>
+      </c>
+      <c r="E8">
+        <v>0.41483826795991002</v>
+      </c>
+      <c r="F8">
+        <v>0.72829861111111105</v>
+      </c>
+      <c r="G8">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="H8">
+        <v>0.77430555555555602</v>
+      </c>
+      <c r="I8">
+        <v>0.45854248615683502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="B9">
+        <v>1225</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.77580958236882802</v>
+      </c>
+      <c r="E9">
+        <v>0.42529227607436998</v>
+      </c>
+      <c r="F9">
+        <v>0.71788194444444398</v>
+      </c>
+      <c r="G9">
+        <v>0.71875</v>
+      </c>
+      <c r="H9">
+        <v>0.71701388888888895</v>
+      </c>
+      <c r="I9">
+        <v>0.435764545604375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="B10">
+        <v>1225</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>0.732846860532408</v>
+      </c>
+      <c r="E10">
+        <v>0.453813771272294</v>
+      </c>
+      <c r="F10">
+        <v>0.69184027777777801</v>
+      </c>
+      <c r="G10">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="H10">
+        <v>0.66840277777777801</v>
+      </c>
+      <c r="I10">
+        <v>0.38410277552802502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="B11">
+        <v>1225</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0.67993465470679104</v>
+      </c>
+      <c r="E11">
+        <v>0.507551679805196</v>
+      </c>
+      <c r="F11">
+        <v>0.63975694444444398</v>
+      </c>
+      <c r="G11">
+        <v>0.70138888888888895</v>
+      </c>
+      <c r="H11">
+        <v>0.578125</v>
+      </c>
+      <c r="I11">
+        <v>0.281661862428988</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="B12">
+        <v>1225</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>0.640200014467593</v>
+      </c>
+      <c r="E12">
+        <v>0.45124927994820502</v>
+      </c>
+      <c r="F12">
+        <v>0.61979166666666696</v>
+      </c>
+      <c r="G12">
+        <v>0.63715277777777801</v>
+      </c>
+      <c r="H12">
+        <v>0.60243055555555602</v>
+      </c>
+      <c r="I12">
+        <v>0.239727888809526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1">
       <c r="A13">
         <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1225</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>0.61344099633487703</v>
+      </c>
+      <c r="E13">
+        <v>0.77551471031085994</v>
+      </c>
+      <c r="F13">
+        <v>0.59722222222222199</v>
+      </c>
+      <c r="G13">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="H13">
+        <v>0.46527777777777801</v>
+      </c>
+      <c r="I13">
+        <v>0.201590194891375</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="B14">
+        <v>1200</v>
+      </c>
+      <c r="C14">
+        <v>0.3</v>
+      </c>
+      <c r="D14">
+        <v>0.79824037905092704</v>
+      </c>
+      <c r="E14">
+        <v>0.53640789357802199</v>
+      </c>
+      <c r="F14">
+        <v>0.71961805555555602</v>
+      </c>
+      <c r="G14">
+        <v>0.80381944444444398</v>
+      </c>
+      <c r="H14">
+        <v>0.63541666666666696</v>
+      </c>
+      <c r="I14">
+        <v>0.44560005149744297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="B15">
+        <v>1200</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.77453161168981399</v>
+      </c>
+      <c r="E15">
+        <v>0.49239522955220499</v>
+      </c>
+      <c r="F15">
+        <v>0.70746527777777801</v>
+      </c>
+      <c r="G15">
+        <v>0.77430555555555602</v>
+      </c>
+      <c r="H15">
+        <v>0.640625</v>
+      </c>
+      <c r="I15">
+        <v>0.41868850490613202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1200</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>0.734130859374999</v>
+      </c>
+      <c r="E16">
+        <v>0.44408871241396403</v>
+      </c>
+      <c r="F16">
+        <v>0.68663194444444398</v>
+      </c>
+      <c r="G16">
+        <v>0.70138888888888895</v>
+      </c>
+      <c r="H16">
+        <v>0.671875</v>
+      </c>
+      <c r="I16">
+        <v>0.37342656459317097</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1200</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>0.68822940779320896</v>
+      </c>
+      <c r="E17">
+        <v>0.53538977422440104</v>
+      </c>
+      <c r="F17">
+        <v>0.64930555555555602</v>
+      </c>
+      <c r="G17">
+        <v>0.71701388888888895</v>
+      </c>
+      <c r="H17">
+        <v>0.58159722222222199</v>
+      </c>
+      <c r="I17">
+        <v>0.30138726773512498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" hidden="1">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1200</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>0.64594184027777801</v>
+      </c>
+      <c r="E18">
+        <v>0.53889091168042003</v>
+      </c>
+      <c r="F18">
+        <v>0.62065972222222199</v>
+      </c>
+      <c r="G18">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="H18">
+        <v>0.58159722222222199</v>
+      </c>
+      <c r="I18">
+        <v>0.24205928137688801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" hidden="1">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1200</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>0.61148485725308699</v>
+      </c>
+      <c r="E19">
+        <v>0.59255515355265198</v>
+      </c>
+      <c r="F19">
+        <v>0.60069444444444398</v>
+      </c>
+      <c r="G19">
+        <v>0.66319444444444398</v>
+      </c>
+      <c r="H19">
+        <v>0.53819444444444398</v>
+      </c>
+      <c r="I19">
+        <v>0.20298092069014101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1175</v>
+      </c>
+      <c r="C20">
+        <v>0.3</v>
+      </c>
+      <c r="D20">
+        <v>0.79808063271604801</v>
+      </c>
+      <c r="E20">
+        <v>0.41198507850757199</v>
+      </c>
+      <c r="F20">
+        <v>0.72048611111111105</v>
+      </c>
+      <c r="G20">
+        <v>0.67881944444444398</v>
+      </c>
+      <c r="H20">
+        <v>0.76215277777777801</v>
+      </c>
+      <c r="I20">
+        <v>0.44251139696208602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1175</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.77133969907407396</v>
+      </c>
+      <c r="E21">
+        <v>0.47932437000591999</v>
+      </c>
+      <c r="F21">
+        <v>0.69878472222222199</v>
+      </c>
+      <c r="G21">
+        <v>0.74826388888888895</v>
+      </c>
+      <c r="H21">
+        <v>0.64930555555555602</v>
+      </c>
+      <c r="I21">
+        <v>0.39953050885255298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" hidden="1">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1175</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>0.73588204089506104</v>
+      </c>
+      <c r="E22">
+        <v>0.39619028464469203</v>
+      </c>
+      <c r="F22">
+        <v>0.68576388888888895</v>
+      </c>
+      <c r="G22">
+        <v>0.66319444444444398</v>
+      </c>
+      <c r="H22">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="I22">
+        <v>0.37190685466560902</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1175</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>0.69074013792438305</v>
+      </c>
+      <c r="E23">
+        <v>0.44060029702258002</v>
+      </c>
+      <c r="F23">
+        <v>0.64930555555555602</v>
+      </c>
+      <c r="G23">
+        <v>0.67013888888888895</v>
+      </c>
+      <c r="H23">
+        <v>0.62847222222222199</v>
+      </c>
+      <c r="I23">
+        <v>0.29887066014847402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" hidden="1">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1175</v>
+      </c>
+      <c r="C24">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <v>0.64637888213734496</v>
+      </c>
+      <c r="E24">
+        <v>0.30024071737139801</v>
+      </c>
+      <c r="F24">
+        <v>0.61545138888888895</v>
+      </c>
+      <c r="G24">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="H24">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="I24">
+        <v>0.23299402155864299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" hidden="1">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25">
+        <v>1175</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <v>0.61371829185956694</v>
+      </c>
+      <c r="E25">
+        <v>0.84784549666773901</v>
+      </c>
+      <c r="F25">
+        <v>0.61371527777777801</v>
+      </c>
+      <c r="G25">
+        <v>0.74652777777777801</v>
+      </c>
+      <c r="H25">
+        <v>0.48090277777777801</v>
+      </c>
+      <c r="I25">
+        <v>0.23590510970647099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26">
+        <v>1150</v>
+      </c>
+      <c r="C26">
+        <v>0.3</v>
+      </c>
+      <c r="D26">
+        <v>0.79887936439043306</v>
+      </c>
+      <c r="E26">
+        <v>0.39878452490605698</v>
+      </c>
+      <c r="F26">
+        <v>0.72135416666666696</v>
+      </c>
+      <c r="G26">
+        <v>0.66840277777777801</v>
+      </c>
+      <c r="H26">
+        <v>0.77430555555555602</v>
+      </c>
+      <c r="I26">
+        <v>0.44521198789316502</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27">
+        <v>1150</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0.77172550154320896</v>
+      </c>
+      <c r="E27">
+        <v>0.44077970377008702</v>
+      </c>
+      <c r="F27">
+        <v>0.703125</v>
+      </c>
+      <c r="G27">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="H27">
+        <v>0.68402777777777801</v>
+      </c>
+      <c r="I27">
+        <v>0.40654664651990202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" hidden="1">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28">
+        <v>1150</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>0.73790147569444497</v>
+      </c>
+      <c r="E28">
+        <v>0.48848118816073099</v>
+      </c>
+      <c r="F28">
+        <v>0.68489583333333304</v>
+      </c>
+      <c r="G28">
+        <v>0.73090277777777801</v>
+      </c>
+      <c r="H28">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="I28">
+        <v>0.371367108560478</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" hidden="1">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29">
+        <v>1150</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>0.68727997202932101</v>
+      </c>
+      <c r="E29">
+        <v>0.43841144256540299</v>
+      </c>
+      <c r="F29">
+        <v>0.64930555555555602</v>
+      </c>
+      <c r="G29">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H29">
+        <v>0.63194444444444398</v>
+      </c>
+      <c r="I29">
+        <v>0.29879128170462599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" hidden="1">
       <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30">
+        <v>1150</v>
+      </c>
+      <c r="C30">
+        <v>30</v>
+      </c>
+      <c r="D30">
+        <v>0.64516722125771697</v>
+      </c>
+      <c r="E30">
+        <v>0.60810396203016104</v>
+      </c>
+      <c r="F30">
+        <v>0.62239583333333304</v>
+      </c>
+      <c r="G30">
+        <v>0.68576388888888895</v>
+      </c>
+      <c r="H30">
+        <v>0.55902777777777801</v>
+      </c>
+      <c r="I30">
+        <v>0.24678159777932199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" hidden="1">
       <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31">
+        <v>1150</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>0.60074869791666696</v>
+      </c>
+      <c r="E31">
+        <v>0.92679527703484699</v>
+      </c>
+      <c r="F31">
+        <v>0.60069444444444398</v>
+      </c>
+      <c r="G31">
+        <v>0.75</v>
+      </c>
+      <c r="H31">
+        <v>0.45138888888888901</v>
+      </c>
+      <c r="I31">
+        <v>0.21101654487263699</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32">
+        <v>1125</v>
+      </c>
+      <c r="C32">
+        <v>0.3</v>
+      </c>
+      <c r="D32">
+        <v>0.798891420717593</v>
+      </c>
+      <c r="E32">
+        <v>0.52441266489557903</v>
+      </c>
+      <c r="F32">
+        <v>0.72482638888888895</v>
+      </c>
+      <c r="G32">
+        <v>0.78993055555555602</v>
+      </c>
+      <c r="H32">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="I32">
+        <v>0.45351369567087402</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" hidden="1">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33">
+        <v>1125</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0.77515251253858097</v>
+      </c>
+      <c r="E33">
+        <v>0.48352494560089199</v>
+      </c>
+      <c r="F33">
+        <v>0.70399305555555602</v>
+      </c>
+      <c r="G33">
+        <v>0.75520833333333304</v>
+      </c>
+      <c r="H33">
+        <v>0.65277777777777801</v>
+      </c>
+      <c r="I33">
+        <v>0.41014340073014799</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" hidden="1">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34">
+        <v>1125</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>0.74134657118055702</v>
+      </c>
+      <c r="E34">
+        <v>0.60628407687003705</v>
+      </c>
+      <c r="F34">
+        <v>0.68055555555555602</v>
+      </c>
+      <c r="G34">
+        <v>0.80902777777777801</v>
+      </c>
+      <c r="H34">
+        <v>0.55208333333333304</v>
+      </c>
+      <c r="I34">
+        <v>0.37365617810101298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" hidden="1">
       <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35">
+        <v>1125</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>0.69654827353394999</v>
+      </c>
+      <c r="E35">
+        <v>0.57010615087513405</v>
+      </c>
+      <c r="F35">
+        <v>0.65711805555555602</v>
+      </c>
+      <c r="G35">
+        <v>0.74652777777777801</v>
+      </c>
+      <c r="H35">
+        <v>0.56770833333333304</v>
+      </c>
+      <c r="I35">
+        <v>0.319383971773671</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" hidden="1">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36">
+        <v>1125</v>
+      </c>
+      <c r="C36">
+        <v>30</v>
+      </c>
+      <c r="D36">
+        <v>0.65092110339506104</v>
+      </c>
+      <c r="E36">
+        <v>0.733911824439341</v>
+      </c>
+      <c r="F36">
+        <v>0.63107638888888895</v>
+      </c>
+      <c r="G36">
+        <v>0.75694444444444398</v>
+      </c>
+      <c r="H36">
+        <v>0.50520833333333304</v>
+      </c>
+      <c r="I36">
+        <v>0.27087609494565001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" hidden="1">
       <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37">
+        <v>1125</v>
+      </c>
+      <c r="C37">
+        <v>100</v>
+      </c>
+      <c r="D37">
+        <v>0.59985954378858097</v>
+      </c>
+      <c r="E37">
+        <v>0.82861713303623996</v>
+      </c>
+      <c r="F37">
+        <v>0.6015625</v>
+      </c>
+      <c r="G37">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="H37">
+        <v>0.48090277777777801</v>
+      </c>
+      <c r="I37">
+        <v>0.209311033630975</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38">
+        <v>1100</v>
+      </c>
+      <c r="C38">
+        <v>0.3</v>
+      </c>
+      <c r="D38">
+        <v>0.80413893711419904</v>
+      </c>
+      <c r="E38">
+        <v>0.54349334594054599</v>
+      </c>
+      <c r="F38">
+        <v>0.7265625</v>
+      </c>
+      <c r="G38">
+        <v>0.82638888888888895</v>
+      </c>
+      <c r="H38">
+        <v>0.62673611111111105</v>
+      </c>
+      <c r="I38">
+        <v>0.46243534515582302</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" hidden="1">
       <c r="A39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39">
+        <v>1100</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0.782265745563271</v>
+      </c>
+      <c r="E39">
+        <v>0.46057201533597197</v>
+      </c>
+      <c r="F39">
+        <v>0.71788194444444398</v>
+      </c>
+      <c r="G39">
+        <v>0.75</v>
+      </c>
+      <c r="H39">
+        <v>0.68576388888888895</v>
+      </c>
+      <c r="I39">
+        <v>0.43666572222940098</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" hidden="1">
       <c r="A40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40">
+        <v>1100</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>0.74527391975308599</v>
+      </c>
+      <c r="E40">
+        <v>0.44136560286959198</v>
+      </c>
+      <c r="F40">
+        <v>0.69618055555555602</v>
+      </c>
+      <c r="G40">
+        <v>0.72569444444444398</v>
+      </c>
+      <c r="H40">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="I40">
+        <v>0.39304645026794899</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" hidden="1">
       <c r="A41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41">
+        <v>1100</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>0.700644410686728</v>
+      </c>
+      <c r="E41">
+        <v>0.494033935014977</v>
+      </c>
+      <c r="F41">
+        <v>0.65798611111111105</v>
+      </c>
+      <c r="G41">
+        <v>0.69965277777777801</v>
+      </c>
+      <c r="H41">
+        <v>0.61631944444444398</v>
+      </c>
+      <c r="I41">
+        <v>0.31707509546102203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" hidden="1">
       <c r="A42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42">
+        <v>1100</v>
+      </c>
+      <c r="C42">
+        <v>30</v>
+      </c>
+      <c r="D42">
+        <v>0.65270242573302495</v>
+      </c>
+      <c r="E42">
+        <v>0.74440592601620903</v>
+      </c>
+      <c r="F42">
+        <v>0.63107638888888895</v>
+      </c>
+      <c r="G42">
+        <v>0.76736111111111105</v>
+      </c>
+      <c r="H42">
+        <v>0.49479166666666702</v>
+      </c>
+      <c r="I42">
+        <v>0.27246953369334098</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" hidden="1">
       <c r="A43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43">
+        <v>1100</v>
+      </c>
+      <c r="C43">
+        <v>100</v>
+      </c>
+      <c r="D43">
+        <v>0.60281937210648096</v>
+      </c>
+      <c r="E43">
+        <v>0.95343334530322199</v>
+      </c>
+      <c r="F43">
+        <v>0.60329861111111105</v>
+      </c>
+      <c r="G43">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="H43">
+        <v>0.42881944444444398</v>
+      </c>
+      <c r="I43">
+        <v>0.22045543903610201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44">
+        <v>1075</v>
+      </c>
+      <c r="C44">
+        <v>0.3</v>
+      </c>
+      <c r="D44">
+        <v>0.80220992476851904</v>
+      </c>
+      <c r="E44">
+        <v>0.43364910235069498</v>
+      </c>
+      <c r="F44">
+        <v>0.73090277777777801</v>
+      </c>
+      <c r="G44">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="H44">
+        <v>0.73958333333333304</v>
+      </c>
+      <c r="I44">
+        <v>0.46187516727788702</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" hidden="1">
       <c r="A45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45">
+        <v>1075</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0.78152729552469102</v>
+      </c>
+      <c r="E45">
+        <v>0.534299331991551</v>
+      </c>
+      <c r="F45">
+        <v>0.72309027777777801</v>
+      </c>
+      <c r="G45">
+        <v>0.81076388888888895</v>
+      </c>
+      <c r="H45">
+        <v>0.63541666666666696</v>
+      </c>
+      <c r="I45">
+        <v>0.45320217366573401</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" hidden="1">
       <c r="A46">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46">
+        <v>1075</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>0.74241958429783905</v>
+      </c>
+      <c r="E46">
+        <v>0.365425329938392</v>
+      </c>
+      <c r="F46">
+        <v>0.69097222222222199</v>
+      </c>
+      <c r="G46">
+        <v>0.66493055555555602</v>
+      </c>
+      <c r="H46">
+        <v>0.71701388888888895</v>
+      </c>
+      <c r="I46">
+        <v>0.38246354610622202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1">
       <c r="A47">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47">
+        <v>1075</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>0.70548502604166696</v>
+      </c>
+      <c r="E47">
+        <v>0.41493719500826598</v>
+      </c>
+      <c r="F47">
+        <v>0.66840277777777801</v>
+      </c>
+      <c r="G47">
+        <v>0.68576388888888895</v>
+      </c>
+      <c r="H47">
+        <v>0.65104166666666696</v>
+      </c>
+      <c r="I47">
+        <v>0.33700877122498502</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" hidden="1">
       <c r="A48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>1075</v>
+      </c>
+      <c r="C48">
+        <v>30</v>
+      </c>
+      <c r="D48">
+        <v>0.66985556520061695</v>
+      </c>
+      <c r="E48">
+        <v>0.80813421806945196</v>
+      </c>
+      <c r="F48">
+        <v>0.65017361111111105</v>
+      </c>
+      <c r="G48">
+        <v>0.828125</v>
+      </c>
+      <c r="H48">
+        <v>0.47222222222222199</v>
+      </c>
+      <c r="I48">
+        <v>0.321390941132143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1">
       <c r="A49">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>1075</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+      <c r="D49">
+        <v>0.62575954861111105</v>
+      </c>
+      <c r="E49">
+        <v>0.87521976991379802</v>
+      </c>
+      <c r="F49">
+        <v>0.61979166666666696</v>
+      </c>
+      <c r="G49">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="H49">
+        <v>0.46180555555555602</v>
+      </c>
+      <c r="I49">
+        <v>0.25252034422786301</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>1050</v>
+      </c>
+      <c r="C50">
+        <v>0.3</v>
+      </c>
+      <c r="D50">
+        <v>0.79791787229938205</v>
+      </c>
+      <c r="E50">
+        <v>0.40817230813692801</v>
+      </c>
+      <c r="F50">
+        <v>0.72482638888888895</v>
+      </c>
+      <c r="G50">
+        <v>0.69270833333333304</v>
+      </c>
+      <c r="H50">
+        <v>0.75694444444444398</v>
+      </c>
+      <c r="I50">
+        <v>0.450583354810418</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1">
       <c r="A51">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>1050</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0.77712975019290198</v>
+      </c>
+      <c r="E51">
+        <v>0.50064657744851304</v>
+      </c>
+      <c r="F51">
+        <v>0.71875</v>
+      </c>
+      <c r="G51">
+        <v>0.78819444444444398</v>
+      </c>
+      <c r="H51">
+        <v>0.64930555555555602</v>
+      </c>
+      <c r="I51">
+        <v>0.44178176184440598</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" hidden="1">
       <c r="A52">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>1050</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>0.73829933449074103</v>
+      </c>
+      <c r="E52">
+        <v>0.494669482304952</v>
+      </c>
+      <c r="F52">
+        <v>0.69357638888888895</v>
+      </c>
+      <c r="G52">
+        <v>0.76388888888888895</v>
+      </c>
+      <c r="H52">
+        <v>0.62326388888888895</v>
+      </c>
+      <c r="I52">
+        <v>0.391038554473427</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" hidden="1">
       <c r="A53">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53">
+        <v>1050</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>0.69693407600308699</v>
+      </c>
+      <c r="E53">
+        <v>0.57187556067896606</v>
+      </c>
+      <c r="F53">
+        <v>0.66579861111111105</v>
+      </c>
+      <c r="G53">
+        <v>0.76909722222222199</v>
+      </c>
+      <c r="H53">
+        <v>0.5625</v>
+      </c>
+      <c r="I53">
+        <v>0.33890881496676301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" hidden="1">
       <c r="A54">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54">
+        <v>1050</v>
+      </c>
+      <c r="C54">
+        <v>30</v>
+      </c>
+      <c r="D54">
+        <v>0.65728684413580296</v>
+      </c>
+      <c r="E54">
+        <v>0.68518427658518699</v>
+      </c>
+      <c r="F54">
+        <v>0.63715277777777801</v>
+      </c>
+      <c r="G54">
+        <v>0.765625</v>
+      </c>
+      <c r="H54">
+        <v>0.50868055555555602</v>
+      </c>
+      <c r="I54">
+        <v>0.283834981442116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" hidden="1">
       <c r="A55">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55">
+        <v>1050</v>
+      </c>
+      <c r="C55">
+        <v>100</v>
+      </c>
+      <c r="D55">
+        <v>0.62141022858796302</v>
+      </c>
+      <c r="E55">
+        <v>0.79050359041761697</v>
+      </c>
+      <c r="F55">
+        <v>0.6171875</v>
+      </c>
+      <c r="G55">
+        <v>0.74479166666666696</v>
+      </c>
+      <c r="H55">
+        <v>0.48958333333333298</v>
+      </c>
+      <c r="I55">
+        <v>0.242401874409368</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56">
+        <v>1025</v>
+      </c>
+      <c r="C56">
+        <v>0.3</v>
+      </c>
+      <c r="D56">
+        <v>0.80081440489969302</v>
+      </c>
+      <c r="E56">
+        <v>0.43462462244209199</v>
+      </c>
+      <c r="F56">
+        <v>0.73350694444444398</v>
+      </c>
+      <c r="G56">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="H56">
+        <v>0.73784722222222199</v>
+      </c>
+      <c r="I56">
+        <v>0.46703148510905701</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" hidden="1">
       <c r="A57">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57">
+        <v>1025</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0.78217833719135799</v>
+      </c>
+      <c r="E57">
+        <v>0.427297910784801</v>
+      </c>
+      <c r="F57">
+        <v>0.72743055555555602</v>
+      </c>
+      <c r="G57">
+        <v>0.75347222222222199</v>
+      </c>
+      <c r="H57">
+        <v>0.70138888888888895</v>
+      </c>
+      <c r="I57">
+        <v>0.45547931399922797</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" hidden="1">
       <c r="A58">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58">
+        <v>1025</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>0.74801070601851805</v>
+      </c>
+      <c r="E58">
+        <v>0.52546485064618798</v>
+      </c>
+      <c r="F58">
+        <v>0.70399305555555602</v>
+      </c>
+      <c r="G58">
+        <v>0.80555555555555602</v>
+      </c>
+      <c r="H58">
+        <v>0.60243055555555602</v>
+      </c>
+      <c r="I58">
+        <v>0.41667256123870899</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1">
       <c r="A59">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59">
+        <v>1025</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>0.71016288097993896</v>
+      </c>
+      <c r="E59">
+        <v>0.53395672229035696</v>
+      </c>
+      <c r="F59">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="G59">
+        <v>0.77604166666666696</v>
+      </c>
+      <c r="H59">
+        <v>0.58854166666666696</v>
+      </c>
+      <c r="I59">
+        <v>0.37116611173587</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" hidden="1">
       <c r="A60">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60">
+        <v>1025</v>
+      </c>
+      <c r="C60">
+        <v>30</v>
+      </c>
+      <c r="D60">
+        <v>0.66795367959105001</v>
+      </c>
+      <c r="E60">
+        <v>0.62170255943033903</v>
+      </c>
+      <c r="F60">
+        <v>0.65798611111111105</v>
+      </c>
+      <c r="G60">
+        <v>0.76215277777777801</v>
+      </c>
+      <c r="H60">
+        <v>0.55381944444444398</v>
+      </c>
+      <c r="I60">
+        <v>0.32306086148874802</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" hidden="1">
       <c r="A61">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61">
+        <v>1025</v>
+      </c>
+      <c r="C61">
+        <v>100</v>
+      </c>
+      <c r="D61">
+        <v>0.63288785204475295</v>
+      </c>
+      <c r="E61">
+        <v>0.87745102034205202</v>
+      </c>
+      <c r="F61">
+        <v>0.62934027777777801</v>
+      </c>
+      <c r="G61">
+        <v>0.81423611111111105</v>
+      </c>
+      <c r="H61">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="I61">
+        <v>0.27841616963864502</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62">
+        <v>1000</v>
+      </c>
+      <c r="C62">
+        <v>0.3</v>
+      </c>
+      <c r="D62">
+        <v>0.80156189718364101</v>
+      </c>
+      <c r="E62">
+        <v>0.43382241570167401</v>
+      </c>
+      <c r="F62">
+        <v>0.73003472222222199</v>
+      </c>
+      <c r="G62">
+        <v>0.73090277777777801</v>
+      </c>
+      <c r="H62">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="I62">
+        <v>0.46007013778947897</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" hidden="1">
       <c r="A63">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63">
+        <v>1000</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0.78817937403549498</v>
+      </c>
+      <c r="E63">
+        <v>0.44235138728567902</v>
+      </c>
+      <c r="F63">
+        <v>0.73177083333333304</v>
+      </c>
+      <c r="G63">
+        <v>0.77430555555555602</v>
+      </c>
+      <c r="H63">
+        <v>0.68923611111111105</v>
+      </c>
+      <c r="I63">
+        <v>0.465228107116126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" hidden="1">
       <c r="A64">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64">
+        <v>1000</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>0.75842737268518501</v>
+      </c>
+      <c r="E64">
+        <v>0.428900074327485</v>
+      </c>
+      <c r="F64">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="G64">
+        <v>0.75</v>
+      </c>
+      <c r="H64">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="I64">
+        <v>0.41812100500354499</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" hidden="1">
       <c r="A65">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65">
+        <v>1000</v>
+      </c>
+      <c r="C65">
+        <v>10</v>
+      </c>
+      <c r="D65">
+        <v>0.72378050250771697</v>
+      </c>
+      <c r="E65">
+        <v>0.46482222316081501</v>
+      </c>
+      <c r="F65">
+        <v>0.68836805555555602</v>
+      </c>
+      <c r="G65">
+        <v>0.75</v>
+      </c>
+      <c r="H65">
+        <v>0.62673611111111105</v>
+      </c>
+      <c r="I65">
+        <v>0.37963120588254901</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" hidden="1">
       <c r="A66">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66">
+        <v>1000</v>
+      </c>
+      <c r="C66">
+        <v>30</v>
+      </c>
+      <c r="D66">
+        <v>0.69220799575617298</v>
+      </c>
+      <c r="E66">
+        <v>0.72309296632464004</v>
+      </c>
+      <c r="F66">
+        <v>0.671875</v>
+      </c>
+      <c r="G66">
+        <v>0.83159722222222199</v>
+      </c>
+      <c r="H66">
+        <v>0.51215277777777801</v>
+      </c>
+      <c r="I66">
+        <v>0.36275663163010802</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" hidden="1">
       <c r="A67">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67">
+        <v>1000</v>
+      </c>
+      <c r="C67">
+        <v>100</v>
+      </c>
+      <c r="D67">
+        <v>0.66543993537808599</v>
+      </c>
+      <c r="E67">
+        <v>0.65632411844666605</v>
+      </c>
+      <c r="F67">
+        <v>0.65538194444444398</v>
+      </c>
+      <c r="G67">
+        <v>0.77430555555555602</v>
+      </c>
+      <c r="H67">
+        <v>0.53645833333333304</v>
+      </c>
+      <c r="I67">
+        <v>0.31994549977258502</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68">
+        <v>975</v>
+      </c>
+      <c r="C68">
+        <v>0.3</v>
+      </c>
+      <c r="D68">
+        <v>0.80450364101080196</v>
+      </c>
+      <c r="E68">
+        <v>0.53730142886972598</v>
+      </c>
+      <c r="F68">
+        <v>0.73524305555555602</v>
+      </c>
+      <c r="G68">
+        <v>0.84027777777777801</v>
+      </c>
+      <c r="H68">
+        <v>0.63020833333333304</v>
+      </c>
+      <c r="I68">
+        <v>0.48122391667009901</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" hidden="1">
       <c r="A69">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69">
+        <v>975</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>0.79482843846450602</v>
+      </c>
+      <c r="E69">
+        <v>0.42937194657214101</v>
+      </c>
+      <c r="F69">
+        <v>0.73784722222222199</v>
+      </c>
+      <c r="G69">
+        <v>0.77430555555555602</v>
+      </c>
+      <c r="H69">
+        <v>0.70138888888888895</v>
+      </c>
+      <c r="I69">
+        <v>0.47696410532280498</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" hidden="1">
       <c r="A70">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70">
+        <v>975</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>0.76865113811728503</v>
+      </c>
+      <c r="E70">
+        <v>0.41888915002238603</v>
+      </c>
+      <c r="F70">
+        <v>0.72048611111111105</v>
+      </c>
+      <c r="G70">
+        <v>0.75173611111111105</v>
+      </c>
+      <c r="H70">
+        <v>0.68923611111111105</v>
+      </c>
+      <c r="I70">
+        <v>0.44183602759896701</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" hidden="1">
       <c r="A71">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71">
+        <v>975</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>0.73258162133487703</v>
+      </c>
+      <c r="E71">
+        <v>0.60910845343266695</v>
+      </c>
+      <c r="F71">
+        <v>0.6953125</v>
+      </c>
+      <c r="G71">
+        <v>0.82465277777777801</v>
+      </c>
+      <c r="H71">
+        <v>0.56597222222222199</v>
+      </c>
+      <c r="I71">
+        <v>0.40438922692692802</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" hidden="1">
       <c r="A72">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72">
+        <v>975</v>
+      </c>
+      <c r="C72">
+        <v>30</v>
+      </c>
+      <c r="D72">
+        <v>0.70901451581790098</v>
+      </c>
+      <c r="E72">
+        <v>0.67948612572703504</v>
+      </c>
+      <c r="F72">
+        <v>0.6796875</v>
+      </c>
+      <c r="G72">
+        <v>0.83159722222222199</v>
+      </c>
+      <c r="H72">
+        <v>0.52777777777777801</v>
+      </c>
+      <c r="I72">
+        <v>0.37720565123494898</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" hidden="1">
       <c r="A73">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73">
+        <v>975</v>
+      </c>
+      <c r="C73">
+        <v>100</v>
+      </c>
+      <c r="D73">
+        <v>0.681821469907407</v>
+      </c>
+      <c r="E73">
+        <v>0.86828741492752304</v>
+      </c>
+      <c r="F73">
+        <v>0.6640625</v>
+      </c>
+      <c r="G73">
+        <v>0.86458333333333304</v>
+      </c>
+      <c r="H73">
+        <v>0.46354166666666702</v>
+      </c>
+      <c r="I73">
+        <v>0.35819167616076503</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74">
+        <v>950</v>
+      </c>
+      <c r="C74">
+        <v>0.3</v>
+      </c>
+      <c r="D74">
+        <v>0.80940152391975395</v>
+      </c>
+      <c r="E74">
+        <v>0.44275776094462399</v>
+      </c>
+      <c r="F74">
+        <v>0.74045138888888895</v>
+      </c>
+      <c r="G74">
+        <v>0.75694444444444398</v>
+      </c>
+      <c r="H74">
+        <v>0.72395833333333304</v>
+      </c>
+      <c r="I74">
+        <v>0.48116462267411197</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" hidden="1">
       <c r="A75">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75">
+        <v>950</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>0.79222728587962998</v>
+      </c>
+      <c r="E75">
+        <v>0.41084374506591698</v>
+      </c>
+      <c r="F75">
+        <v>0.73611111111111105</v>
+      </c>
+      <c r="G75">
+        <v>0.76215277777777801</v>
+      </c>
+      <c r="H75">
+        <v>0.71006944444444398</v>
+      </c>
+      <c r="I75">
+        <v>0.47286402064041999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" hidden="1">
       <c r="A76">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76">
+        <v>950</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>0.76481722608024805</v>
+      </c>
+      <c r="E76">
+        <v>0.50773965394830201</v>
+      </c>
+      <c r="F76">
+        <v>0.71354166666666696</v>
+      </c>
+      <c r="G76">
+        <v>0.8125</v>
+      </c>
+      <c r="H76">
+        <v>0.61458333333333304</v>
+      </c>
+      <c r="I76">
+        <v>0.43570202054364598</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" hidden="1">
       <c r="A77">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77">
+        <v>950</v>
+      </c>
+      <c r="C77">
+        <v>10</v>
+      </c>
+      <c r="D77">
+        <v>0.73330198688271597</v>
+      </c>
+      <c r="E77">
+        <v>0.56601220796120599</v>
+      </c>
+      <c r="F77">
+        <v>0.69965277777777801</v>
+      </c>
+      <c r="G77">
+        <v>0.82118055555555602</v>
+      </c>
+      <c r="H77">
+        <v>0.578125</v>
+      </c>
+      <c r="I77">
+        <v>0.41164996254234498</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" hidden="1">
       <c r="A78">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78">
+        <v>950</v>
+      </c>
+      <c r="C78">
+        <v>30</v>
+      </c>
+      <c r="D78">
+        <v>0.70582561728395199</v>
+      </c>
+      <c r="E78">
+        <v>0.70180884475583805</v>
+      </c>
+      <c r="F78">
+        <v>0.68836805555555602</v>
+      </c>
+      <c r="G78">
+        <v>0.85763888888888895</v>
+      </c>
+      <c r="H78">
+        <v>0.51909722222222199</v>
+      </c>
+      <c r="I78">
+        <v>0.400377862790882</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" hidden="1">
       <c r="A79">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79">
+        <v>950</v>
+      </c>
+      <c r="C79">
+        <v>100</v>
+      </c>
+      <c r="D79">
+        <v>0.67932581018518501</v>
+      </c>
+      <c r="E79">
+        <v>0.73876666432943705</v>
+      </c>
+      <c r="F79">
+        <v>0.67621527777777801</v>
+      </c>
+      <c r="G79">
+        <v>0.84722222222222199</v>
+      </c>
+      <c r="H79">
+        <v>0.50520833333333304</v>
+      </c>
+      <c r="I79">
+        <v>0.37504785501018101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80">
+        <v>925</v>
+      </c>
+      <c r="C80">
+        <v>0.3</v>
+      </c>
+      <c r="D80">
+        <v>0.80779501832561795</v>
+      </c>
+      <c r="E80">
+        <v>0.46495384968892101</v>
+      </c>
+      <c r="F80">
+        <v>0.73871527777777801</v>
+      </c>
+      <c r="G80">
+        <v>0.77430555555555602</v>
+      </c>
+      <c r="H80">
+        <v>0.703125</v>
+      </c>
+      <c r="I80">
+        <v>0.47864466301316</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" hidden="1">
       <c r="A81">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81">
+        <v>925</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0.78577715084876398</v>
+      </c>
+      <c r="E81">
+        <v>0.41161833877624598</v>
+      </c>
+      <c r="F81">
+        <v>0.73177083333333304</v>
+      </c>
+      <c r="G81">
+        <v>0.75</v>
+      </c>
+      <c r="H81">
+        <v>0.71354166666666696</v>
+      </c>
+      <c r="I81">
+        <v>0.46385004625214998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" hidden="1">
       <c r="A82">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82">
+        <v>925</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>0.75736641589506104</v>
+      </c>
+      <c r="E82">
+        <v>0.43725861723799703</v>
+      </c>
+      <c r="F82">
+        <v>0.70486111111111105</v>
+      </c>
+      <c r="G82">
+        <v>0.75</v>
+      </c>
+      <c r="H82">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="I82">
+        <v>0.41140213163112499</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" hidden="1">
       <c r="A83">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83">
+        <v>925</v>
+      </c>
+      <c r="C83">
+        <v>10</v>
+      </c>
+      <c r="D83">
+        <v>0.72626109182098897</v>
+      </c>
+      <c r="E83">
+        <v>0.66605267790558997</v>
+      </c>
+      <c r="F83">
+        <v>0.68923611111111105</v>
+      </c>
+      <c r="G83">
+        <v>0.84722222222222199</v>
+      </c>
+      <c r="H83">
+        <v>0.53125</v>
+      </c>
+      <c r="I83">
+        <v>0.39890894957735001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" hidden="1">
       <c r="A84">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84">
+        <v>925</v>
+      </c>
+      <c r="C84">
+        <v>30</v>
+      </c>
+      <c r="D84">
+        <v>0.69976429880401203</v>
+      </c>
+      <c r="E84">
+        <v>0.67358552055464904</v>
+      </c>
+      <c r="F84">
+        <v>0.6796875</v>
+      </c>
+      <c r="G84">
+        <v>0.82291666666666696</v>
+      </c>
+      <c r="H84">
+        <v>0.53645833333333304</v>
+      </c>
+      <c r="I84">
+        <v>0.375094184218426</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" hidden="1">
       <c r="A85">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85">
+        <v>925</v>
+      </c>
+      <c r="C85">
+        <v>100</v>
+      </c>
+      <c r="D85">
+        <v>0.67422296971450602</v>
+      </c>
+      <c r="E85">
+        <v>0.55416165069846202</v>
+      </c>
+      <c r="F85">
+        <v>0.65885416666666696</v>
+      </c>
+      <c r="G85">
+        <v>0.75694444444444398</v>
+      </c>
+      <c r="H85">
+        <v>0.56076388888888895</v>
+      </c>
+      <c r="I85">
+        <v>0.32400445615857898</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86">
+        <v>900</v>
+      </c>
+      <c r="C86">
+        <v>0.3</v>
+      </c>
+      <c r="D86">
+        <v>0.81197554976851805</v>
+      </c>
+      <c r="E86">
+        <v>0.50987999895890701</v>
+      </c>
+      <c r="F86">
+        <v>0.74479166666666696</v>
+      </c>
+      <c r="G86">
+        <v>0.828125</v>
+      </c>
+      <c r="H86">
+        <v>0.66145833333333304</v>
+      </c>
+      <c r="I86">
+        <v>0.496528124653003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" hidden="1">
       <c r="A87">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87">
+        <v>900</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>0.79293559510030998</v>
+      </c>
+      <c r="E87">
+        <v>0.37612833186377398</v>
+      </c>
+      <c r="F87">
+        <v>0.73090277777777801</v>
+      </c>
+      <c r="G87">
+        <v>0.73784722222222199</v>
+      </c>
+      <c r="H87">
+        <v>0.72395833333333304</v>
+      </c>
+      <c r="I87">
+        <v>0.46185010343156302</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" hidden="1">
       <c r="A88">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88">
+        <v>900</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>0.76210153838734496</v>
+      </c>
+      <c r="E88">
+        <v>0.45898199585100102</v>
+      </c>
+      <c r="F88">
+        <v>0.71440972222222199</v>
+      </c>
+      <c r="G88">
+        <v>0.77430555555555602</v>
+      </c>
+      <c r="H88">
+        <v>0.65451388888888895</v>
+      </c>
+      <c r="I88">
+        <v>0.43192974833129999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" hidden="1">
       <c r="A89">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89">
+        <v>900</v>
+      </c>
+      <c r="C89">
+        <v>10</v>
+      </c>
+      <c r="D89">
+        <v>0.72663785204475195</v>
+      </c>
+      <c r="E89">
+        <v>0.52131911351441895</v>
+      </c>
+      <c r="F89">
+        <v>0.69618055555555602</v>
+      </c>
+      <c r="G89">
+        <v>0.78472222222222199</v>
+      </c>
+      <c r="H89">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="I89">
+        <v>0.398661614632906</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" hidden="1">
       <c r="A90">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="B90">
+        <v>900</v>
+      </c>
+      <c r="C90">
+        <v>30</v>
+      </c>
+      <c r="D90">
+        <v>0.70136779031635799</v>
+      </c>
+      <c r="E90">
+        <v>0.72187364729757098</v>
+      </c>
+      <c r="F90">
+        <v>0.67013888888888895</v>
+      </c>
+      <c r="G90">
+        <v>0.86111111111111105</v>
+      </c>
+      <c r="H90">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="I90">
+        <v>0.36819216149774298</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" hidden="1">
       <c r="A91">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91">
+        <v>900</v>
+      </c>
+      <c r="C91">
+        <v>100</v>
+      </c>
+      <c r="D91">
+        <v>0.67649257330246904</v>
+      </c>
+      <c r="E91">
+        <v>0.76749931223484802</v>
+      </c>
+      <c r="F91">
+        <v>0.66145833333333304</v>
+      </c>
+      <c r="G91">
+        <v>0.85069444444444398</v>
+      </c>
+      <c r="H91">
+        <v>0.47222222222222199</v>
+      </c>
+      <c r="I91">
+        <v>0.34886803548310202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="B92">
+        <v>875</v>
+      </c>
+      <c r="C92">
+        <v>0.3</v>
+      </c>
+      <c r="D92">
+        <v>0.819824218749999</v>
+      </c>
+      <c r="E92">
+        <v>0.48797635027657799</v>
+      </c>
+      <c r="F92">
+        <v>0.75173611111111105</v>
+      </c>
+      <c r="G92">
+        <v>0.82118055555555602</v>
+      </c>
+      <c r="H92">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="I92">
+        <v>0.508399646566976</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" hidden="1">
       <c r="A93">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93">
+        <v>875</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>0.80110677083333404</v>
+      </c>
+      <c r="E93">
+        <v>0.47106182815610298</v>
+      </c>
+      <c r="F93">
+        <v>0.73090277777777801</v>
+      </c>
+      <c r="G93">
+        <v>0.80555555555555602</v>
+      </c>
+      <c r="H93">
+        <v>0.65625</v>
+      </c>
+      <c r="I93">
+        <v>0.46704056378169401</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" hidden="1">
       <c r="A94">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94">
+        <v>875</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <v>0.770956910686729</v>
+      </c>
+      <c r="E94">
+        <v>0.50566879994311598</v>
+      </c>
+      <c r="F94">
+        <v>0.71440972222222199</v>
+      </c>
+      <c r="G94">
+        <v>0.81770833333333304</v>
+      </c>
+      <c r="H94">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="I94">
+        <v>0.43827475024497697</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" hidden="1">
       <c r="A95">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95">
+        <v>875</v>
+      </c>
+      <c r="C95">
+        <v>10</v>
+      </c>
+      <c r="D95">
+        <v>0.73325074749228503</v>
+      </c>
+      <c r="E95">
+        <v>0.54043612283297005</v>
+      </c>
+      <c r="F95">
+        <v>0.6953125</v>
+      </c>
+      <c r="G95">
+        <v>0.81076388888888895</v>
+      </c>
+      <c r="H95">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="I95">
+        <v>0.401474103888875</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" hidden="1">
       <c r="A96">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96">
+        <v>875</v>
+      </c>
+      <c r="C96">
+        <v>30</v>
+      </c>
+      <c r="D96">
+        <v>0.70789629147376498</v>
+      </c>
+      <c r="E96">
+        <v>0.52713640654068505</v>
+      </c>
+      <c r="F96">
+        <v>0.6875</v>
+      </c>
+      <c r="G96">
+        <v>0.79340277777777801</v>
+      </c>
+      <c r="H96">
+        <v>0.58159722222222199</v>
+      </c>
+      <c r="I96">
+        <v>0.38370557865928001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" hidden="1">
       <c r="A97">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="B97">
+        <v>875</v>
+      </c>
+      <c r="C97">
+        <v>100</v>
+      </c>
+      <c r="D97">
+        <v>0.69574954185956805</v>
+      </c>
+      <c r="E97">
+        <v>0.61395920471536802</v>
+      </c>
+      <c r="F97">
+        <v>0.68576388888888895</v>
+      </c>
+      <c r="G97">
+        <v>0.82465277777777801</v>
+      </c>
+      <c r="H97">
+        <v>0.546875</v>
+      </c>
+      <c r="I97">
+        <v>0.38674811075242299</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="B98">
+        <v>850</v>
+      </c>
+      <c r="C98">
+        <v>0.3</v>
+      </c>
+      <c r="D98">
+        <v>0.819170163001542</v>
+      </c>
+      <c r="E98">
+        <v>0.51999940332329797</v>
+      </c>
+      <c r="F98">
+        <v>0.74652777777777801</v>
+      </c>
+      <c r="G98">
+        <v>0.85069444444444398</v>
+      </c>
+      <c r="H98">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="I98">
+        <v>0.50411694869672796</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" hidden="1">
       <c r="A99">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="B99">
+        <v>850</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>0.79286928530092604</v>
+      </c>
+      <c r="E99">
+        <v>0.42341295061192002</v>
+      </c>
+      <c r="F99">
+        <v>0.72743055555555602</v>
+      </c>
+      <c r="G99">
+        <v>0.78645833333333304</v>
+      </c>
+      <c r="H99">
+        <v>0.66840277777777801</v>
+      </c>
+      <c r="I99">
+        <v>0.45806435892022301</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" hidden="1">
       <c r="A100">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="B100">
+        <v>850</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>0.761679566936729</v>
+      </c>
+      <c r="E100">
+        <v>0.45200330074142098</v>
+      </c>
+      <c r="F100">
+        <v>0.71354166666666696</v>
+      </c>
+      <c r="G100">
+        <v>0.79340277777777801</v>
+      </c>
+      <c r="H100">
+        <v>0.63368055555555602</v>
+      </c>
+      <c r="I100">
+        <v>0.43263753455317699</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" hidden="1">
       <c r="A101">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="B101">
+        <v>850</v>
+      </c>
+      <c r="C101">
+        <v>10</v>
+      </c>
+      <c r="D101">
+        <v>0.72704173900462898</v>
+      </c>
+      <c r="E101">
+        <v>0.39674087882304598</v>
+      </c>
+      <c r="F101">
+        <v>0.69704861111111105</v>
+      </c>
+      <c r="G101">
+        <v>0.75347222222222199</v>
+      </c>
+      <c r="H101">
+        <v>0.640625</v>
+      </c>
+      <c r="I101">
+        <v>0.39663076022590699</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" hidden="1">
       <c r="A102">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="B102">
+        <v>850</v>
+      </c>
+      <c r="C102">
+        <v>30</v>
+      </c>
+      <c r="D102">
+        <v>0.69544813368055503</v>
+      </c>
+      <c r="E102">
+        <v>0.62721227259926404</v>
+      </c>
+      <c r="F102">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="G102">
+        <v>0.84201388888888895</v>
+      </c>
+      <c r="H102">
+        <v>0.52256944444444398</v>
+      </c>
+      <c r="I102">
+        <v>0.38474188203193299</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" hidden="1">
       <c r="A103">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="B103">
+        <v>850</v>
+      </c>
+      <c r="C103">
+        <v>100</v>
+      </c>
+      <c r="D103">
+        <v>0.67129931037808599</v>
+      </c>
+      <c r="E103">
+        <v>0.63061844707106895</v>
+      </c>
+      <c r="F103">
+        <v>0.66579861111111105</v>
+      </c>
+      <c r="G103">
+        <v>0.84375</v>
+      </c>
+      <c r="H103">
+        <v>0.48784722222222199</v>
+      </c>
+      <c r="I103">
+        <v>0.35483046101872501</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="B104">
+        <v>825</v>
+      </c>
+      <c r="C104">
+        <v>0.3</v>
+      </c>
+      <c r="D104">
+        <v>0.82201545621142103</v>
+      </c>
+      <c r="E104">
+        <v>0.50230543588958299</v>
+      </c>
+      <c r="F104">
+        <v>0.74913194444444398</v>
+      </c>
+      <c r="G104">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="H104">
+        <v>0.66493055555555602</v>
+      </c>
+      <c r="I104">
+        <v>0.50548306237061702</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" hidden="1">
       <c r="A105">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="B105">
+        <v>825</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>0.79866235050154399</v>
+      </c>
+      <c r="E105">
+        <v>0.420924063943037</v>
+      </c>
+      <c r="F105">
+        <v>0.734375</v>
+      </c>
+      <c r="G105">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="H105">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="I105">
+        <v>0.471857825607021</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" hidden="1">
       <c r="A106">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="B106">
+        <v>825</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106">
+        <v>0.76655333719135899</v>
+      </c>
+      <c r="E106">
+        <v>0.48219524627108501</v>
+      </c>
+      <c r="F106">
+        <v>0.72135416666666696</v>
+      </c>
+      <c r="G106">
+        <v>0.82638888888888895</v>
+      </c>
+      <c r="H106">
+        <v>0.61631944444444398</v>
+      </c>
+      <c r="I106">
+        <v>0.45281217251245498</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" hidden="1">
       <c r="A107">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="B107">
+        <v>825</v>
+      </c>
+      <c r="C107">
+        <v>10</v>
+      </c>
+      <c r="D107">
+        <v>0.73561680169753096</v>
+      </c>
+      <c r="E107">
+        <v>0.45810872864246199</v>
+      </c>
+      <c r="F107">
+        <v>0.69791666666666696</v>
+      </c>
+      <c r="G107">
+        <v>0.78472222222222199</v>
+      </c>
+      <c r="H107">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="I107">
+        <v>0.40193703331237002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" hidden="1">
       <c r="A108">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="B108">
+        <v>825</v>
+      </c>
+      <c r="C108">
+        <v>30</v>
+      </c>
+      <c r="D108">
+        <v>0.71129014756944497</v>
+      </c>
+      <c r="E108">
+        <v>0.50088504799959899</v>
+      </c>
+      <c r="F108">
+        <v>0.68576388888888895</v>
+      </c>
+      <c r="G108">
+        <v>0.80208333333333304</v>
+      </c>
+      <c r="H108">
+        <v>0.56944444444444398</v>
+      </c>
+      <c r="I108">
+        <v>0.38200888517154902</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" hidden="1">
       <c r="A109">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="B109">
+        <v>825</v>
+      </c>
+      <c r="C109">
+        <v>100</v>
+      </c>
+      <c r="D109">
+        <v>0.68850368923611005</v>
+      </c>
+      <c r="E109">
+        <v>0.61094725147314299</v>
+      </c>
+      <c r="F109">
+        <v>0.67013888888888895</v>
+      </c>
+      <c r="G109">
+        <v>0.83159722222222199</v>
+      </c>
+      <c r="H109">
+        <v>0.50868055555555602</v>
+      </c>
+      <c r="I109">
+        <v>0.35953922849601799</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="B110">
+        <v>800</v>
+      </c>
+      <c r="C110">
+        <v>0.3</v>
+      </c>
+      <c r="D110">
+        <v>0.82624722704475595</v>
+      </c>
+      <c r="E110">
+        <v>0.44419192694224802</v>
+      </c>
+      <c r="F110">
+        <v>0.75607638888888895</v>
+      </c>
+      <c r="G110">
+        <v>0.78993055555555602</v>
+      </c>
+      <c r="H110">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="I110">
+        <v>0.51333079101764201</v>
+      </c>
+      <c r="J110" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" hidden="1">
       <c r="A111">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="B111">
+        <v>800</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>0.80540786554784105</v>
+      </c>
+      <c r="E111">
+        <v>0.37913192202489199</v>
+      </c>
+      <c r="F111">
+        <v>0.74305555555555602</v>
+      </c>
+      <c r="G111">
+        <v>0.765625</v>
+      </c>
+      <c r="H111">
+        <v>0.72048611111111105</v>
+      </c>
+      <c r="I111">
+        <v>0.48660709956247999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" hidden="1">
       <c r="A112">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="B112">
+        <v>800</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112">
+        <v>0.77653899016203798</v>
+      </c>
+      <c r="E112">
+        <v>0.510238872014943</v>
+      </c>
+      <c r="F112">
+        <v>0.72048611111111105</v>
+      </c>
+      <c r="G112">
+        <v>0.83680555555555602</v>
+      </c>
+      <c r="H112">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="I112">
+        <v>0.45341241511015601</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" hidden="1">
       <c r="A113">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="B113">
+        <v>800</v>
+      </c>
+      <c r="C113">
+        <v>10</v>
+      </c>
+      <c r="D113">
+        <v>0.75562427662037002</v>
+      </c>
+      <c r="E113">
+        <v>0.51400333496079098</v>
+      </c>
+      <c r="F113">
+        <v>0.71440972222222199</v>
+      </c>
+      <c r="G113">
+        <v>0.828125</v>
+      </c>
+      <c r="H113">
+        <v>0.60069444444444398</v>
+      </c>
+      <c r="I113">
+        <v>0.44035936913036999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" hidden="1">
       <c r="A114">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="B114">
+        <v>800</v>
+      </c>
+      <c r="C114">
+        <v>30</v>
+      </c>
+      <c r="D114">
+        <v>0.73225911458333504</v>
+      </c>
+      <c r="E114">
+        <v>0.42385114468290003</v>
+      </c>
+      <c r="F114">
+        <v>0.70572916666666696</v>
+      </c>
+      <c r="G114">
+        <v>0.77604166666666696</v>
+      </c>
+      <c r="H114">
+        <v>0.63541666666666696</v>
+      </c>
+      <c r="I114">
+        <v>0.41558806013543498</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" hidden="1">
       <c r="A115">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="B115">
+        <v>800</v>
+      </c>
+      <c r="C115">
+        <v>100</v>
+      </c>
+      <c r="D115">
+        <v>0.716103636188272</v>
+      </c>
+      <c r="E115">
+        <v>0.44677215327872399</v>
+      </c>
+      <c r="F115">
+        <v>0.69618055555555602</v>
+      </c>
+      <c r="G115">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="H115">
+        <v>0.61458333333333304</v>
+      </c>
+      <c r="I115">
+        <v>0.397692607948395</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="B116">
+        <v>775</v>
+      </c>
+      <c r="C116">
+        <v>0.3</v>
+      </c>
+      <c r="D116">
+        <v>0.82022509162808699</v>
+      </c>
+      <c r="E116">
+        <v>0.38944344846861001</v>
+      </c>
+      <c r="F116">
+        <v>0.75173611111111105</v>
+      </c>
+      <c r="G116">
+        <v>0.71701388888888895</v>
+      </c>
+      <c r="H116">
+        <v>0.78645833333333304</v>
+      </c>
+      <c r="I116">
+        <v>0.50469063604168496</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" hidden="1">
       <c r="A117">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="B117">
+        <v>775</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>0.79939175829475395</v>
+      </c>
+      <c r="E117">
+        <v>0.33313661705186998</v>
+      </c>
+      <c r="F117">
+        <v>0.74131944444444398</v>
+      </c>
+      <c r="G117">
+        <v>0.72395833333333304</v>
+      </c>
+      <c r="H117">
+        <v>0.75868055555555602</v>
+      </c>
+      <c r="I117">
+        <v>0.48293009484817501</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" hidden="1">
       <c r="A118">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="B118">
+        <v>775</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+      <c r="D118">
+        <v>0.76820203993055602</v>
+      </c>
+      <c r="E118">
+        <v>0.48090208805240497</v>
+      </c>
+      <c r="F118">
+        <v>0.71440972222222199</v>
+      </c>
+      <c r="G118">
+        <v>0.81944444444444398</v>
+      </c>
+      <c r="H118">
+        <v>0.609375</v>
+      </c>
+      <c r="I118">
+        <v>0.43860630043363302</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" hidden="1">
       <c r="A119">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="B119">
+        <v>775</v>
+      </c>
+      <c r="C119">
+        <v>10</v>
+      </c>
+      <c r="D119">
+        <v>0.74531008873456694</v>
+      </c>
+      <c r="E119">
+        <v>0.536768213952318</v>
+      </c>
+      <c r="F119">
+        <v>0.70399305555555602</v>
+      </c>
+      <c r="G119">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="H119">
+        <v>0.57465277777777801</v>
+      </c>
+      <c r="I119">
+        <v>0.42236208145701398</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" hidden="1">
       <c r="A120">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="B120">
+        <v>775</v>
+      </c>
+      <c r="C120">
+        <v>30</v>
+      </c>
+      <c r="D120">
+        <v>0.72907323013117198</v>
+      </c>
+      <c r="E120">
+        <v>0.42990469514172103</v>
+      </c>
+      <c r="F120">
+        <v>0.69704861111111105</v>
+      </c>
+      <c r="G120">
+        <v>0.77256944444444398</v>
+      </c>
+      <c r="H120">
+        <v>0.62152777777777801</v>
+      </c>
+      <c r="I120">
+        <v>0.39867101645895803</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" hidden="1">
       <c r="A121">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="B121">
+        <v>775</v>
+      </c>
+      <c r="C121">
+        <v>100</v>
+      </c>
+      <c r="D121">
+        <v>0.70760693962191301</v>
+      </c>
+      <c r="E121">
+        <v>0.430277596461488</v>
+      </c>
+      <c r="F121">
+        <v>0.6875</v>
+      </c>
+      <c r="G121">
+        <v>0.77430555555555602</v>
+      </c>
+      <c r="H121">
+        <v>0.60069444444444398</v>
+      </c>
+      <c r="I121">
+        <v>0.380782452611719</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="B122">
+        <v>750</v>
+      </c>
+      <c r="C122">
+        <v>0.3</v>
+      </c>
+      <c r="D122">
+        <v>0.81340422453703898</v>
+      </c>
+      <c r="E122">
+        <v>0.37459953785314598</v>
+      </c>
+      <c r="F122">
+        <v>0.74565972222222199</v>
+      </c>
+      <c r="G122">
+        <v>0.703125</v>
+      </c>
+      <c r="H122">
+        <v>0.78819444444444398</v>
+      </c>
+      <c r="I122">
+        <v>0.49310694499574398</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" hidden="1">
       <c r="A123">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
+      <c r="B123">
+        <v>750</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>0.795063536844137</v>
+      </c>
+      <c r="E123">
+        <v>0.46215644587085403</v>
+      </c>
+      <c r="F123">
+        <v>0.73524305555555602</v>
+      </c>
+      <c r="G123">
+        <v>0.82638888888888895</v>
+      </c>
+      <c r="H123">
+        <v>0.64409722222222199</v>
+      </c>
+      <c r="I123">
+        <v>0.47850367914602998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" hidden="1">
       <c r="A124">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="B124">
+        <v>750</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124">
+        <v>0.76752085744598897</v>
+      </c>
+      <c r="E124">
+        <v>0.37871004664953301</v>
+      </c>
+      <c r="F124">
+        <v>0.72135416666666696</v>
+      </c>
+      <c r="G124">
+        <v>0.76215277777777801</v>
+      </c>
+      <c r="H124">
+        <v>0.68055555555555602</v>
+      </c>
+      <c r="I124">
+        <v>0.44418953359744801</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" hidden="1">
       <c r="A125">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
+      <c r="B125">
+        <v>750</v>
+      </c>
+      <c r="C125">
+        <v>10</v>
+      </c>
+      <c r="D125">
+        <v>0.74381510416666696</v>
+      </c>
+      <c r="E125">
+        <v>0.35740598642687099</v>
+      </c>
+      <c r="F125">
+        <v>0.71006944444444398</v>
+      </c>
+      <c r="G125">
+        <v>0.75520833333333304</v>
+      </c>
+      <c r="H125">
+        <v>0.66493055555555602</v>
+      </c>
+      <c r="I125">
+        <v>0.42186150785903498</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" hidden="1">
       <c r="A126">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
+      <c r="B126">
+        <v>750</v>
+      </c>
+      <c r="C126">
+        <v>30</v>
+      </c>
+      <c r="D126">
+        <v>0.72366898148148096</v>
+      </c>
+      <c r="E126">
+        <v>0.44262171692388702</v>
+      </c>
+      <c r="F126">
+        <v>0.703125</v>
+      </c>
+      <c r="G126">
+        <v>0.79861111111111105</v>
+      </c>
+      <c r="H126">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="I126">
+        <v>0.41386704024491799</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" hidden="1">
       <c r="A127">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
+      <c r="B127">
+        <v>750</v>
+      </c>
+      <c r="C127">
+        <v>100</v>
+      </c>
+      <c r="D127">
+        <v>0.71000614872685197</v>
+      </c>
+      <c r="E127">
+        <v>0.33377679926079601</v>
+      </c>
+      <c r="F127">
+        <v>0.68923611111111105</v>
+      </c>
+      <c r="G127">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="H127">
+        <v>0.64930555555555602</v>
+      </c>
+      <c r="I127">
+        <v>0.37968493565987699</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="B128">
+        <v>725</v>
+      </c>
+      <c r="C128">
+        <v>0.3</v>
+      </c>
+      <c r="D128">
+        <v>0.80958538290894899</v>
+      </c>
+      <c r="E128">
+        <v>0.48554430390310299</v>
+      </c>
+      <c r="F128">
+        <v>0.74045138888888895</v>
+      </c>
+      <c r="G128">
+        <v>0.80729166666666696</v>
+      </c>
+      <c r="H128">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="I128">
+        <v>0.48525822535145902</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" hidden="1">
       <c r="A129">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
+      <c r="B129">
+        <v>725</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>0.79215796199845601</v>
+      </c>
+      <c r="E129">
+        <v>0.31919630405836202</v>
+      </c>
+      <c r="F129">
+        <v>0.73263888888888895</v>
+      </c>
+      <c r="G129">
+        <v>0.71180555555555602</v>
+      </c>
+      <c r="H129">
+        <v>0.75347222222222199</v>
+      </c>
+      <c r="I129">
+        <v>0.46568219139413403</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" hidden="1">
       <c r="A130">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
+      <c r="B130">
+        <v>725</v>
+      </c>
+      <c r="C130">
+        <v>3</v>
+      </c>
+      <c r="D130">
+        <v>0.76458815586419904</v>
+      </c>
+      <c r="E130">
+        <v>0.406296278148021</v>
+      </c>
+      <c r="F130">
+        <v>0.71875</v>
+      </c>
+      <c r="G130">
+        <v>0.78472222222222199</v>
+      </c>
+      <c r="H130">
+        <v>0.65277777777777801</v>
+      </c>
+      <c r="I130">
+        <v>0.441358749785557</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" hidden="1">
       <c r="A131">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
+      <c r="B131">
+        <v>725</v>
+      </c>
+      <c r="C131">
+        <v>10</v>
+      </c>
+      <c r="D131">
+        <v>0.74222065489969002</v>
+      </c>
+      <c r="E131">
+        <v>0.41742394106388903</v>
+      </c>
+      <c r="F131">
+        <v>0.70138888888888895</v>
+      </c>
+      <c r="G131">
+        <v>0.77430555555555602</v>
+      </c>
+      <c r="H131">
+        <v>0.62847222222222199</v>
+      </c>
+      <c r="I131">
+        <v>0.40713033797123899</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" hidden="1">
       <c r="A132">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
+      <c r="B132">
+        <v>725</v>
+      </c>
+      <c r="C132">
+        <v>30</v>
+      </c>
+      <c r="D132">
+        <v>0.729697145061727</v>
+      </c>
+      <c r="E132">
+        <v>0.425612890596267</v>
+      </c>
+      <c r="F132">
+        <v>0.69618055555555602</v>
+      </c>
+      <c r="G132">
+        <v>0.77604166666666696</v>
+      </c>
+      <c r="H132">
+        <v>0.61631944444444398</v>
+      </c>
+      <c r="I132">
+        <v>0.39746375125617001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" hidden="1">
       <c r="A133">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
+      <c r="B133">
+        <v>725</v>
+      </c>
+      <c r="C133">
+        <v>100</v>
+      </c>
+      <c r="D133">
+        <v>0.72229757426697505</v>
+      </c>
+      <c r="E133">
+        <v>0.46437167981621003</v>
+      </c>
+      <c r="F133">
+        <v>0.69270833333333304</v>
+      </c>
+      <c r="G133">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="H133">
+        <v>0.59375</v>
+      </c>
+      <c r="I133">
+        <v>0.393194506344266</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
+      <c r="B134">
+        <v>700</v>
+      </c>
+      <c r="C134">
+        <v>0.3</v>
+      </c>
+      <c r="D134">
+        <v>0.81024848090277701</v>
+      </c>
+      <c r="E134">
+        <v>0.47283356338035398</v>
+      </c>
+      <c r="F134">
+        <v>0.74305555555555602</v>
+      </c>
+      <c r="G134">
+        <v>0.79513888888888895</v>
+      </c>
+      <c r="H134">
+        <v>0.69097222222222199</v>
+      </c>
+      <c r="I134">
+        <v>0.48877009118595899</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" hidden="1">
       <c r="A135">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
+      <c r="B135">
+        <v>700</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>0.79251663773147996</v>
+      </c>
+      <c r="E135">
+        <v>0.33496736715352898</v>
+      </c>
+      <c r="F135">
+        <v>0.73524305555555602</v>
+      </c>
+      <c r="G135">
+        <v>0.71875</v>
+      </c>
+      <c r="H135">
+        <v>0.75173611111111105</v>
+      </c>
+      <c r="I135">
+        <v>0.47074228427683901</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" hidden="1">
       <c r="A136">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
+      <c r="B136">
+        <v>700</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
+      </c>
+      <c r="D136">
+        <v>0.76435305748456905</v>
+      </c>
+      <c r="E136">
+        <v>0.33189387406827597</v>
+      </c>
+      <c r="F136">
+        <v>0.72135416666666696</v>
+      </c>
+      <c r="G136">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="H136">
+        <v>0.71354166666666696</v>
+      </c>
+      <c r="I136">
+        <v>0.44276238477524599</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" hidden="1">
       <c r="A137">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
+      <c r="B137">
+        <v>700</v>
+      </c>
+      <c r="C137">
+        <v>10</v>
+      </c>
+      <c r="D137">
+        <v>0.74019820601851705</v>
+      </c>
+      <c r="E137">
+        <v>0.28945712795328699</v>
+      </c>
+      <c r="F137">
+        <v>0.70486111111111105</v>
+      </c>
+      <c r="G137">
+        <v>0.69965277777777801</v>
+      </c>
+      <c r="H137">
+        <v>0.71006944444444398</v>
+      </c>
+      <c r="I137">
+        <v>0.409744452884577</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" hidden="1">
       <c r="A138">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
+      <c r="B138">
+        <v>700</v>
+      </c>
+      <c r="C138">
+        <v>30</v>
+      </c>
+      <c r="D138">
+        <v>0.72380461516203798</v>
+      </c>
+      <c r="E138">
+        <v>0.34502159433837998</v>
+      </c>
+      <c r="F138">
+        <v>0.69444444444444398</v>
+      </c>
+      <c r="G138">
+        <v>0.734375</v>
+      </c>
+      <c r="H138">
+        <v>0.65451388888888895</v>
+      </c>
+      <c r="I138">
+        <v>0.39013497976060701</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" hidden="1">
       <c r="A139">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
+      <c r="B139">
+        <v>700</v>
+      </c>
+      <c r="C139">
+        <v>100</v>
+      </c>
+      <c r="D139">
+        <v>0.70973488136574003</v>
+      </c>
+      <c r="E139">
+        <v>0.31156885684275198</v>
+      </c>
+      <c r="F139">
+        <v>0.68142361111111105</v>
+      </c>
+      <c r="G139">
+        <v>0.69791666666666696</v>
+      </c>
+      <c r="H139">
+        <v>0.66493055555555602</v>
+      </c>
+      <c r="I139">
+        <v>0.36304478750501601</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
+      <c r="B140">
+        <v>675</v>
+      </c>
+      <c r="C140">
+        <v>0.3</v>
+      </c>
+      <c r="D140">
+        <v>0.81740692515432001</v>
+      </c>
+      <c r="E140">
+        <v>0.42075554441476298</v>
+      </c>
+      <c r="F140">
+        <v>0.74826388888888895</v>
+      </c>
+      <c r="G140">
+        <v>0.75520833333333304</v>
+      </c>
+      <c r="H140">
+        <v>0.74131944444444398</v>
+      </c>
+      <c r="I140">
+        <v>0.49657567511814699</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" hidden="1">
       <c r="A141">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
+      <c r="B141">
+        <v>675</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>0.79657359182098897</v>
+      </c>
+      <c r="E141">
+        <v>0.38163167394395597</v>
+      </c>
+      <c r="F141">
+        <v>0.73784722222222199</v>
+      </c>
+      <c r="G141">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="H141">
+        <v>0.70486111111111105</v>
+      </c>
+      <c r="I141">
+        <v>0.476733026445673</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" hidden="1">
       <c r="A142">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
+      <c r="B142">
+        <v>675</v>
+      </c>
+      <c r="C142">
+        <v>3</v>
+      </c>
+      <c r="D142">
+        <v>0.76808750482253096</v>
+      </c>
+      <c r="E142">
+        <v>0.29619281110043499</v>
+      </c>
+      <c r="F142">
+        <v>0.71875</v>
+      </c>
+      <c r="G142">
+        <v>0.71180555555555602</v>
+      </c>
+      <c r="H142">
+        <v>0.72569444444444398</v>
+      </c>
+      <c r="I142">
+        <v>0.437542203250954</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" hidden="1">
       <c r="A143">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
+      <c r="B143">
+        <v>675</v>
+      </c>
+      <c r="C143">
+        <v>10</v>
+      </c>
+      <c r="D143">
+        <v>0.74245876736111105</v>
+      </c>
+      <c r="E143">
+        <v>0.38303334522244598</v>
+      </c>
+      <c r="F143">
+        <v>0.70659722222222199</v>
+      </c>
+      <c r="G143">
+        <v>0.77430555555555602</v>
+      </c>
+      <c r="H143">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="I143">
+        <v>0.41703587047069601</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" hidden="1">
       <c r="A144">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="B144">
+        <v>675</v>
+      </c>
+      <c r="C144">
+        <v>30</v>
+      </c>
+      <c r="D144">
+        <v>0.72804241415894999</v>
+      </c>
+      <c r="E144">
+        <v>0.39959272372865801</v>
+      </c>
+      <c r="F144">
+        <v>0.703125</v>
+      </c>
+      <c r="G144">
+        <v>0.77604166666666696</v>
+      </c>
+      <c r="H144">
+        <v>0.63020833333333304</v>
+      </c>
+      <c r="I144">
+        <v>0.41064008226409499</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" hidden="1">
       <c r="A145">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
+      <c r="B145">
+        <v>675</v>
+      </c>
+      <c r="C145">
+        <v>100</v>
+      </c>
+      <c r="D145">
+        <v>0.72171585648148195</v>
+      </c>
+      <c r="E145">
+        <v>0.455637303673258</v>
+      </c>
+      <c r="F145">
+        <v>0.69878472222222199</v>
+      </c>
+      <c r="G145">
+        <v>0.796875</v>
+      </c>
+      <c r="H145">
+        <v>0.60069444444444398</v>
+      </c>
+      <c r="I145">
+        <v>0.40544819923669201</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="B146">
+        <v>650</v>
+      </c>
+      <c r="C146">
+        <v>0.3</v>
+      </c>
+      <c r="D146">
+        <v>0.81098994502314703</v>
+      </c>
+      <c r="E146">
+        <v>0.40843937785040202</v>
+      </c>
+      <c r="F146">
+        <v>0.73871527777777801</v>
+      </c>
+      <c r="G146">
+        <v>0.73263888888888895</v>
+      </c>
+      <c r="H146">
+        <v>0.74479166666666696</v>
+      </c>
+      <c r="I146">
+        <v>0.47746581532245702</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" hidden="1">
       <c r="A147">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
+      <c r="B147">
+        <v>650</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>0.79657961998456694</v>
+      </c>
+      <c r="E147">
+        <v>0.38214908829593303</v>
+      </c>
+      <c r="F147">
+        <v>0.73611111111111105</v>
+      </c>
+      <c r="G147">
+        <v>0.76736111111111105</v>
+      </c>
+      <c r="H147">
+        <v>0.70486111111111105</v>
+      </c>
+      <c r="I147">
+        <v>0.47314724215322401</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" hidden="1">
       <c r="A148">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
+      <c r="B148">
+        <v>650</v>
+      </c>
+      <c r="C148">
+        <v>3</v>
+      </c>
+      <c r="D148">
+        <v>0.76721643518518501</v>
+      </c>
+      <c r="E148">
+        <v>0.39871221836450199</v>
+      </c>
+      <c r="F148">
+        <v>0.71788194444444398</v>
+      </c>
+      <c r="G148">
+        <v>0.78472222222222199</v>
+      </c>
+      <c r="H148">
+        <v>0.65104166666666696</v>
+      </c>
+      <c r="I148">
+        <v>0.439710521888867</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" hidden="1">
       <c r="A149">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
+      <c r="B149">
+        <v>650</v>
+      </c>
+      <c r="C149">
+        <v>10</v>
+      </c>
+      <c r="D149">
+        <v>0.74808907214506104</v>
+      </c>
+      <c r="E149">
+        <v>0.32941991966350098</v>
+      </c>
+      <c r="F149">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="G149">
+        <v>0.75694444444444398</v>
+      </c>
+      <c r="H149">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="I149">
+        <v>0.43205837183699702</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" hidden="1">
       <c r="A150">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
+      <c r="B150">
+        <v>650</v>
+      </c>
+      <c r="C150">
+        <v>30</v>
+      </c>
+      <c r="D150">
+        <v>0.73590615354938305</v>
+      </c>
+      <c r="E150">
+        <v>0.33708467475457599</v>
+      </c>
+      <c r="F150">
+        <v>0.71267361111111105</v>
+      </c>
+      <c r="G150">
+        <v>0.76215277777777801</v>
+      </c>
+      <c r="H150">
+        <v>0.66319444444444398</v>
+      </c>
+      <c r="I150">
+        <v>0.42744530423089699</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" hidden="1">
       <c r="A151">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
+      <c r="B151">
+        <v>650</v>
+      </c>
+      <c r="C151">
+        <v>100</v>
+      </c>
+      <c r="D151">
+        <v>0.72736424575617398</v>
+      </c>
+      <c r="E151">
+        <v>0.34961146468497101</v>
+      </c>
+      <c r="F151">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="G151">
+        <v>0.76736111111111105</v>
+      </c>
+      <c r="H151">
+        <v>0.64930555555555602</v>
+      </c>
+      <c r="I151">
+        <v>0.41960093946890598</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
+      <c r="B152">
+        <v>625</v>
+      </c>
+      <c r="C152">
+        <v>0.3</v>
+      </c>
+      <c r="D152">
+        <v>0.81006462191357897</v>
+      </c>
+      <c r="E152">
+        <v>0.41459222733133</v>
+      </c>
+      <c r="F152">
+        <v>0.73871527777777801</v>
+      </c>
+      <c r="G152">
+        <v>0.734375</v>
+      </c>
+      <c r="H152">
+        <v>0.74305555555555602</v>
+      </c>
+      <c r="I152">
+        <v>0.47744854425646999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" hidden="1">
       <c r="A153">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
+      <c r="B153">
+        <v>625</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>0.78948748553240899</v>
+      </c>
+      <c r="E153">
+        <v>0.45547337635400298</v>
+      </c>
+      <c r="F153">
+        <v>0.7265625</v>
+      </c>
+      <c r="G153">
+        <v>0.80208333333333304</v>
+      </c>
+      <c r="H153">
+        <v>0.65104166666666696</v>
+      </c>
+      <c r="I153">
+        <v>0.458383855928581</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" hidden="1">
       <c r="A154">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
+      <c r="B154">
+        <v>625</v>
+      </c>
+      <c r="C154">
+        <v>3</v>
+      </c>
+      <c r="D154">
+        <v>0.76357542438271597</v>
+      </c>
+      <c r="E154">
+        <v>0.3107001593391</v>
+      </c>
+      <c r="F154">
+        <v>0.70746527777777801</v>
+      </c>
+      <c r="G154">
+        <v>0.71354166666666696</v>
+      </c>
+      <c r="H154">
+        <v>0.70138888888888895</v>
+      </c>
+      <c r="I154">
+        <v>0.41496119949842603</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" hidden="1">
       <c r="A155">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
+      <c r="B155">
+        <v>625</v>
+      </c>
+      <c r="C155">
+        <v>10</v>
+      </c>
+      <c r="D155">
+        <v>0.74353479456018401</v>
+      </c>
+      <c r="E155">
+        <v>0.43625934982902498</v>
+      </c>
+      <c r="F155">
+        <v>0.70659722222222199</v>
+      </c>
+      <c r="G155">
+        <v>0.80381944444444398</v>
+      </c>
+      <c r="H155">
+        <v>0.609375</v>
+      </c>
+      <c r="I155">
+        <v>0.42123431964277103</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" hidden="1">
       <c r="A156">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
+      <c r="B156">
+        <v>625</v>
+      </c>
+      <c r="C156">
+        <v>30</v>
+      </c>
+      <c r="D156">
+        <v>0.73453474633487603</v>
+      </c>
+      <c r="E156">
+        <v>0.37314042853405599</v>
+      </c>
+      <c r="F156">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="G156">
+        <v>0.77604166666666696</v>
+      </c>
+      <c r="H156">
+        <v>0.640625</v>
+      </c>
+      <c r="I156">
+        <v>0.42054037358389501</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" hidden="1">
       <c r="A157">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
+      <c r="B157">
+        <v>625</v>
+      </c>
+      <c r="C157">
+        <v>100</v>
+      </c>
+      <c r="D157">
+        <v>0.73414894386574003</v>
+      </c>
+      <c r="E157">
+        <v>0.46316015218030598</v>
+      </c>
+      <c r="F157">
+        <v>0.70225694444444398</v>
+      </c>
+      <c r="G157">
+        <v>0.80902777777777801</v>
+      </c>
+      <c r="H157">
+        <v>0.59548611111111105</v>
+      </c>
+      <c r="I157">
+        <v>0.41406472355255602</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
+      <c r="B158">
+        <v>600</v>
+      </c>
+      <c r="C158">
+        <v>0.3</v>
+      </c>
+      <c r="D158">
+        <v>0.80909408757715995</v>
+      </c>
+      <c r="E158">
+        <v>0.36958455564485898</v>
+      </c>
+      <c r="F158">
+        <v>0.73697916666666696</v>
+      </c>
+      <c r="G158">
+        <v>0.69270833333333304</v>
+      </c>
+      <c r="H158">
+        <v>0.78125</v>
+      </c>
+      <c r="I158">
+        <v>0.47582715691056199</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" hidden="1">
       <c r="A159">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
+      <c r="B159">
+        <v>600</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>0.793071228780864</v>
+      </c>
+      <c r="E159">
+        <v>0.40505708028522902</v>
+      </c>
+      <c r="F159">
+        <v>0.7265625</v>
+      </c>
+      <c r="G159">
+        <v>0.76909722222222199</v>
+      </c>
+      <c r="H159">
+        <v>0.68402777777777801</v>
+      </c>
+      <c r="I159">
+        <v>0.45477354291126898</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" hidden="1">
       <c r="A160">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
+      <c r="B160">
+        <v>600</v>
+      </c>
+      <c r="C160">
+        <v>3</v>
+      </c>
+      <c r="D160">
+        <v>0.76797296971450801</v>
+      </c>
+      <c r="E160">
+        <v>0.320423045717322</v>
+      </c>
+      <c r="F160">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="G160">
+        <v>0.72743055555555602</v>
+      </c>
+      <c r="H160">
+        <v>0.703125</v>
+      </c>
+      <c r="I160">
+        <v>0.43068278943849497</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" hidden="1">
       <c r="A161">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
+      <c r="B161">
+        <v>600</v>
+      </c>
+      <c r="C161">
+        <v>10</v>
+      </c>
+      <c r="D161">
+        <v>0.75136839313271597</v>
+      </c>
+      <c r="E161">
+        <v>0.31617156745930602</v>
+      </c>
+      <c r="F161">
+        <v>0.71354166666666696</v>
+      </c>
+      <c r="G161">
+        <v>0.73784722222222199</v>
+      </c>
+      <c r="H161">
+        <v>0.68923611111111105</v>
+      </c>
+      <c r="I161">
+        <v>0.42758883693028599</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" hidden="1">
       <c r="A162">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
+      <c r="B162">
+        <v>600</v>
+      </c>
+      <c r="C162">
+        <v>30</v>
+      </c>
+      <c r="D162">
+        <v>0.74524980709876698</v>
+      </c>
+      <c r="E162">
+        <v>0.32159293358507002</v>
+      </c>
+      <c r="F162">
+        <v>0.71267361111111105</v>
+      </c>
+      <c r="G162">
+        <v>0.74652777777777801</v>
+      </c>
+      <c r="H162">
+        <v>0.67881944444444398</v>
+      </c>
+      <c r="I162">
+        <v>0.42632557220109202</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" hidden="1">
       <c r="A163">
         <v>162</v>
       </c>
+      <c r="B163">
+        <v>600</v>
+      </c>
+      <c r="C163">
+        <v>100</v>
+      </c>
+      <c r="D163">
+        <v>0.74383017457561695</v>
+      </c>
+      <c r="E163">
+        <v>0.40510774860831</v>
+      </c>
+      <c r="F163">
+        <v>0.70659722222222199</v>
+      </c>
+      <c r="G163">
+        <v>0.796875</v>
+      </c>
+      <c r="H163">
+        <v>0.61631944444444398</v>
+      </c>
+      <c r="I163">
+        <v>0.42009885842198802</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>575</v>
+      </c>
+      <c r="C164">
+        <v>0.3</v>
+      </c>
+      <c r="D164">
+        <v>0.79402367862654299</v>
+      </c>
+      <c r="E164">
+        <v>0.43673132014186</v>
+      </c>
+      <c r="F164">
+        <v>0.7265625</v>
+      </c>
+      <c r="G164">
+        <v>0.77430555555555602</v>
+      </c>
+      <c r="H164">
+        <v>0.67881944444444398</v>
+      </c>
+      <c r="I164">
+        <v>0.45520493955923502</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" hidden="1">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>575</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>0.781982421875</v>
+      </c>
+      <c r="E165">
+        <v>0.46309826554223699</v>
+      </c>
+      <c r="F165">
+        <v>0.72048611111111105</v>
+      </c>
+      <c r="G165">
+        <v>0.81597222222222199</v>
+      </c>
+      <c r="H165">
+        <v>0.625</v>
+      </c>
+      <c r="I165">
+        <v>0.44924029154790301</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" hidden="1">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>575</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+      <c r="D166">
+        <v>0.76449773341049498</v>
+      </c>
+      <c r="E166">
+        <v>0.37049498845516399</v>
+      </c>
+      <c r="F166">
+        <v>0.71180555555555602</v>
+      </c>
+      <c r="G166">
+        <v>0.765625</v>
+      </c>
+      <c r="H166">
+        <v>0.65798611111111105</v>
+      </c>
+      <c r="I166">
+        <v>0.426086650227471</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" hidden="1">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>575</v>
+      </c>
+      <c r="C167">
+        <v>10</v>
+      </c>
+      <c r="D167">
+        <v>0.74671163676697505</v>
+      </c>
+      <c r="E167">
+        <v>0.36775432685936299</v>
+      </c>
+      <c r="F167">
+        <v>0.70746527777777801</v>
+      </c>
+      <c r="G167">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="H167">
+        <v>0.63715277777777801</v>
+      </c>
+      <c r="I167">
+        <v>0.419095132372865</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" hidden="1">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>575</v>
+      </c>
+      <c r="C168">
+        <v>30</v>
+      </c>
+      <c r="D168">
+        <v>0.73209032600308799</v>
+      </c>
+      <c r="E168">
+        <v>0.307838114511581</v>
+      </c>
+      <c r="F168">
+        <v>0.703125</v>
+      </c>
+      <c r="G168">
+        <v>0.73611111111111105</v>
+      </c>
+      <c r="H168">
+        <v>0.67013888888888895</v>
+      </c>
+      <c r="I168">
+        <v>0.40713696419083001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" hidden="1">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>575</v>
+      </c>
+      <c r="C169">
+        <v>100</v>
+      </c>
+      <c r="D169">
+        <v>0.74129231770833304</v>
+      </c>
+      <c r="E169">
+        <v>0.35196486001407201</v>
+      </c>
+      <c r="F169">
+        <v>0.71267361111111105</v>
+      </c>
+      <c r="G169">
+        <v>0.765625</v>
+      </c>
+      <c r="H169">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="I169">
+        <v>0.427752694250296</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>550</v>
+      </c>
+      <c r="C170">
+        <v>0.3</v>
+      </c>
+      <c r="D170">
+        <v>0.79838354793595701</v>
+      </c>
+      <c r="E170">
+        <v>0.40001519594961099</v>
+      </c>
+      <c r="F170">
+        <v>0.74045138888888895</v>
+      </c>
+      <c r="G170">
+        <v>0.75868055555555602</v>
+      </c>
+      <c r="H170">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="I170">
+        <v>0.48122270716047</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" hidden="1">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>550</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>0.78640558690200701</v>
+      </c>
+      <c r="E171">
+        <v>0.315584874889211</v>
+      </c>
+      <c r="F171">
+        <v>0.72309027777777801</v>
+      </c>
+      <c r="G171">
+        <v>0.72743055555555602</v>
+      </c>
+      <c r="H171">
+        <v>0.71875</v>
+      </c>
+      <c r="I171">
+        <v>0.446197366814229</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" hidden="1">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>550</v>
+      </c>
+      <c r="C172">
+        <v>3</v>
+      </c>
+      <c r="D172">
+        <v>0.76435757860725495</v>
+      </c>
+      <c r="E172">
+        <v>0.30653461536521798</v>
+      </c>
+      <c r="F172">
+        <v>0.71180555555555602</v>
+      </c>
+      <c r="G172">
+        <v>0.73263888888888895</v>
+      </c>
+      <c r="H172">
+        <v>0.69097222222222199</v>
+      </c>
+      <c r="I172">
+        <v>0.42397930858271898</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" hidden="1">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>550</v>
+      </c>
+      <c r="C173">
+        <v>10</v>
+      </c>
+      <c r="D173">
+        <v>0.74690303096064903</v>
+      </c>
+      <c r="E173">
+        <v>0.23902899751598999</v>
+      </c>
+      <c r="F173">
+        <v>0.70746527777777801</v>
+      </c>
+      <c r="G173">
+        <v>0.69618055555555602</v>
+      </c>
+      <c r="H173">
+        <v>0.71875</v>
+      </c>
+      <c r="I173">
+        <v>0.41503627457199699</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" hidden="1">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>550</v>
+      </c>
+      <c r="C174">
+        <v>30</v>
+      </c>
+      <c r="D174">
+        <v>0.74208954234182101</v>
+      </c>
+      <c r="E174">
+        <v>0.33016286288482699</v>
+      </c>
+      <c r="F174">
+        <v>0.70052083333333304</v>
+      </c>
+      <c r="G174">
+        <v>0.75694444444444398</v>
+      </c>
+      <c r="H174">
+        <v>0.64409722222222199</v>
+      </c>
+      <c r="I174">
+        <v>0.40361984851182597</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" hidden="1">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>550</v>
+      </c>
+      <c r="C175">
+        <v>100</v>
+      </c>
+      <c r="D175">
+        <v>0.74282196421682201</v>
+      </c>
+      <c r="E175">
+        <v>0.37614640010453398</v>
+      </c>
+      <c r="F175">
+        <v>0.70659722222222199</v>
+      </c>
+      <c r="G175">
+        <v>0.78298611111111105</v>
+      </c>
+      <c r="H175">
+        <v>0.63020833333333304</v>
+      </c>
+      <c r="I175">
+        <v>0.41810273297238898</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>525</v>
+      </c>
+      <c r="C176">
+        <v>0.3</v>
+      </c>
+      <c r="D176">
+        <v>0.79553524064428904</v>
+      </c>
+      <c r="E176">
+        <v>0.40187637563902601</v>
+      </c>
+      <c r="F176">
+        <v>0.74826388888888895</v>
+      </c>
+      <c r="G176">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="H176">
+        <v>0.71875</v>
+      </c>
+      <c r="I176">
+        <v>0.497395065383334</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" hidden="1">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>525</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>0.789712034625772</v>
+      </c>
+      <c r="E177">
+        <v>0.39319701535673102</v>
+      </c>
+      <c r="F177">
+        <v>0.73177083333333304</v>
+      </c>
+      <c r="G177">
+        <v>0.78819444444444398</v>
+      </c>
+      <c r="H177">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="I177">
+        <v>0.46652164308509703</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" hidden="1">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>525</v>
+      </c>
+      <c r="C178">
+        <v>3</v>
+      </c>
+      <c r="D178">
+        <v>0.77056960117669704</v>
+      </c>
+      <c r="E178">
+        <v>0.42238442301735402</v>
+      </c>
+      <c r="F178">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="G178">
+        <v>0.81597222222222199</v>
+      </c>
+      <c r="H178">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="I178">
+        <v>0.46540077541432301</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" hidden="1">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>525</v>
+      </c>
+      <c r="C179">
+        <v>10</v>
+      </c>
+      <c r="D179">
+        <v>0.74918167679398096</v>
+      </c>
+      <c r="E179">
+        <v>0.229040746970503</v>
+      </c>
+      <c r="F179">
+        <v>0.71267361111111105</v>
+      </c>
+      <c r="G179">
+        <v>0.69965277777777801</v>
+      </c>
+      <c r="H179">
+        <v>0.72569444444444398</v>
+      </c>
+      <c r="I179">
+        <v>0.42549152414528502</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" hidden="1">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>525</v>
+      </c>
+      <c r="C180">
+        <v>30</v>
+      </c>
+      <c r="D180">
+        <v>0.74786753713348797</v>
+      </c>
+      <c r="E180">
+        <v>0.22748247593409501</v>
+      </c>
+      <c r="F180">
+        <v>0.71180555555555602</v>
+      </c>
+      <c r="G180">
+        <v>0.71006944444444398</v>
+      </c>
+      <c r="H180">
+        <v>0.71354166666666696</v>
+      </c>
+      <c r="I180">
+        <v>0.42361366473127399</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" hidden="1">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>525</v>
+      </c>
+      <c r="C181">
+        <v>100</v>
+      </c>
+      <c r="D181">
+        <v>0.74881094473379495</v>
+      </c>
+      <c r="E181">
+        <v>0.25755504713382599</v>
+      </c>
+      <c r="F181">
+        <v>0.71354166666666696</v>
+      </c>
+      <c r="G181">
+        <v>0.72048611111111105</v>
+      </c>
+      <c r="H181">
+        <v>0.70659722222222199</v>
+      </c>
+      <c r="I181">
+        <v>0.427124531744979</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>500</v>
+      </c>
+      <c r="C182">
+        <v>0.3</v>
+      </c>
+      <c r="D182">
+        <v>0.80350447289737703</v>
+      </c>
+      <c r="E182">
+        <v>0.40592429955385601</v>
+      </c>
+      <c r="F182">
+        <v>0.74913194444444398</v>
+      </c>
+      <c r="G182">
+        <v>0.77256944444444398</v>
+      </c>
+      <c r="H182">
+        <v>0.72569444444444398</v>
+      </c>
+      <c r="I182">
+        <v>0.49881220170381602</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" hidden="1">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>500</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>0.79350374951774605</v>
+      </c>
+      <c r="E183">
+        <v>0.369683581412591</v>
+      </c>
+      <c r="F183">
+        <v>0.734375</v>
+      </c>
+      <c r="G183">
+        <v>0.76041666666666696</v>
+      </c>
+      <c r="H183">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="I183">
+        <v>0.46938707931218199</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" hidden="1">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>500</v>
+      </c>
+      <c r="C184">
+        <v>3</v>
+      </c>
+      <c r="D184">
+        <v>0.77612153983410603</v>
+      </c>
+      <c r="E184">
+        <v>0.41355587524206699</v>
+      </c>
+      <c r="F184">
+        <v>0.72829861111111105</v>
+      </c>
+      <c r="G184">
+        <v>0.79861111111111105</v>
+      </c>
+      <c r="H184">
+        <v>0.65798611111111105</v>
+      </c>
+      <c r="I184">
+        <v>0.46117999922202302</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" hidden="1">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>500</v>
+      </c>
+      <c r="C185">
+        <v>10</v>
+      </c>
+      <c r="D185">
+        <v>0.76022527247299498</v>
+      </c>
+      <c r="E185">
+        <v>0.38819831374661801</v>
+      </c>
+      <c r="F185">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="G185">
+        <v>0.78472222222222199</v>
+      </c>
+      <c r="H185">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="I185">
+        <v>0.44795789393686197</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" hidden="1">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>500</v>
+      </c>
+      <c r="C186">
+        <v>30</v>
+      </c>
+      <c r="D186">
+        <v>0.76235924238040298</v>
+      </c>
+      <c r="E186">
+        <v>0.31104477698926303</v>
+      </c>
+      <c r="F186">
+        <v>0.72135416666666696</v>
+      </c>
+      <c r="G186">
+        <v>0.74131944444444398</v>
+      </c>
+      <c r="H186">
+        <v>0.70138888888888895</v>
+      </c>
+      <c r="I186">
+        <v>0.44306169393997802</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" hidden="1">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>500</v>
+      </c>
+      <c r="C187">
+        <v>100</v>
+      </c>
+      <c r="D187">
+        <v>0.75819076726466195</v>
+      </c>
+      <c r="E187">
+        <v>0.41682070451250303</v>
+      </c>
+      <c r="F187">
+        <v>0.72309027777777801</v>
+      </c>
+      <c r="G187">
+        <v>0.80208333333333304</v>
+      </c>
+      <c r="H187">
+        <v>0.64409722222222199</v>
+      </c>
+      <c r="I187">
+        <v>0.451855254640671</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>475</v>
+      </c>
+      <c r="C188">
+        <v>0.3</v>
+      </c>
+      <c r="D188">
+        <v>0.79988154658564803</v>
+      </c>
+      <c r="E188">
+        <v>0.432499257603701</v>
+      </c>
+      <c r="F188">
+        <v>0.74131944444444398</v>
+      </c>
+      <c r="G188">
+        <v>0.78472222222222199</v>
+      </c>
+      <c r="H188">
+        <v>0.69791666666666696</v>
+      </c>
+      <c r="I188">
+        <v>0.48446762166741097</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" hidden="1">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>475</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>0.78961558400848797</v>
+      </c>
+      <c r="E189">
+        <v>0.315335450972477</v>
+      </c>
+      <c r="F189">
+        <v>0.73524305555555602</v>
+      </c>
+      <c r="G189">
+        <v>0.72569444444444398</v>
+      </c>
+      <c r="H189">
+        <v>0.74479166666666696</v>
+      </c>
+      <c r="I189">
+        <v>0.47057192864432701</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" hidden="1">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>475</v>
+      </c>
+      <c r="C190">
+        <v>3</v>
+      </c>
+      <c r="D190">
+        <v>0.78099531008873402</v>
+      </c>
+      <c r="E190">
+        <v>0.32133663259738798</v>
+      </c>
+      <c r="F190">
+        <v>0.73263888888888895</v>
+      </c>
+      <c r="G190">
+        <v>0.74652777777777801</v>
+      </c>
+      <c r="H190">
+        <v>0.71875</v>
+      </c>
+      <c r="I190">
+        <v>0.46545738704050998</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" hidden="1">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>475</v>
+      </c>
+      <c r="C191">
+        <v>10</v>
+      </c>
+      <c r="D191">
+        <v>0.77278193721064803</v>
+      </c>
+      <c r="E191">
+        <v>0.42976596333011102</v>
+      </c>
+      <c r="F191">
+        <v>0.72829861111111105</v>
+      </c>
+      <c r="G191">
+        <v>0.80381944444444398</v>
+      </c>
+      <c r="H191">
+        <v>0.65277777777777801</v>
+      </c>
+      <c r="I191">
+        <v>0.46189637589738303</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" hidden="1">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>475</v>
+      </c>
+      <c r="C192">
+        <v>30</v>
+      </c>
+      <c r="D192">
+        <v>0.77476821711033905</v>
+      </c>
+      <c r="E192">
+        <v>0.31500872116902301</v>
+      </c>
+      <c r="F192">
+        <v>0.73090277777777801</v>
+      </c>
+      <c r="G192">
+        <v>0.75520833333333304</v>
+      </c>
+      <c r="H192">
+        <v>0.70659722222222199</v>
+      </c>
+      <c r="I192">
+        <v>0.46235215700591897</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" hidden="1">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>475</v>
+      </c>
+      <c r="C193">
+        <v>100</v>
+      </c>
+      <c r="D193">
+        <v>0.768495912905092</v>
+      </c>
+      <c r="E193">
+        <v>0.32023545641819001</v>
+      </c>
+      <c r="F193">
+        <v>0.73090277777777801</v>
+      </c>
+      <c r="G193">
+        <v>0.75868055555555602</v>
+      </c>
+      <c r="H193">
+        <v>0.703125</v>
+      </c>
+      <c r="I193">
+        <v>0.46251987238705899</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>450</v>
+      </c>
+      <c r="C194">
+        <v>0.3</v>
+      </c>
+      <c r="D194">
+        <v>0.80090030623071096</v>
+      </c>
+      <c r="E194">
+        <v>0.34164819174813499</v>
+      </c>
+      <c r="F194">
+        <v>0.74045138888888895</v>
+      </c>
+      <c r="G194">
+        <v>0.72048611111111105</v>
+      </c>
+      <c r="H194">
+        <v>0.76041666666666696</v>
+      </c>
+      <c r="I194">
+        <v>0.48128662439754499</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" hidden="1">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>450</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>0.79284969376928904</v>
+      </c>
+      <c r="E195">
+        <v>0.35603415275851402</v>
+      </c>
+      <c r="F195">
+        <v>0.73090277777777801</v>
+      </c>
+      <c r="G195">
+        <v>0.76041666666666696</v>
+      </c>
+      <c r="H195">
+        <v>0.70138888888888895</v>
+      </c>
+      <c r="I195">
+        <v>0.462612193678206</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" hidden="1">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>450</v>
+      </c>
+      <c r="C196">
+        <v>3</v>
+      </c>
+      <c r="D196">
+        <v>0.78550739052854901</v>
+      </c>
+      <c r="E196">
+        <v>0.17279230840057799</v>
+      </c>
+      <c r="F196">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="G196">
+        <v>0.65798611111111105</v>
+      </c>
+      <c r="H196">
+        <v>0.80034722222222199</v>
+      </c>
+      <c r="I196">
+        <v>0.46304959170841498</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" hidden="1">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>450</v>
+      </c>
+      <c r="C197">
+        <v>10</v>
+      </c>
+      <c r="D197">
+        <v>0.77249559944058699</v>
+      </c>
+      <c r="E197">
+        <v>0.48282067540282603</v>
+      </c>
+      <c r="F197">
+        <v>0.72048611111111105</v>
+      </c>
+      <c r="G197">
+        <v>0.83854166666666696</v>
+      </c>
+      <c r="H197">
+        <v>0.60243055555555602</v>
+      </c>
+      <c r="I197">
+        <v>0.453803019818876</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" hidden="1">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>450</v>
+      </c>
+      <c r="C198">
+        <v>30</v>
+      </c>
+      <c r="D198">
+        <v>0.77283317660108097</v>
+      </c>
+      <c r="E198">
+        <v>0.39498583246298002</v>
+      </c>
+      <c r="F198">
+        <v>0.72569444444444398</v>
+      </c>
+      <c r="G198">
+        <v>0.79861111111111105</v>
+      </c>
+      <c r="H198">
+        <v>0.65277777777777801</v>
+      </c>
+      <c r="I198">
+        <v>0.45626675807121603</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" hidden="1">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>450</v>
+      </c>
+      <c r="C199">
+        <v>100</v>
+      </c>
+      <c r="D199">
+        <v>0.77196512104552295</v>
+      </c>
+      <c r="E199">
+        <v>0.41748590356652798</v>
+      </c>
+      <c r="F199">
+        <v>0.73524305555555602</v>
+      </c>
+      <c r="G199">
+        <v>0.82118055555555602</v>
+      </c>
+      <c r="H199">
+        <v>0.64930555555555602</v>
+      </c>
+      <c r="I199">
+        <v>0.47759328828803799</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>425</v>
+      </c>
+      <c r="C200">
+        <v>0.3</v>
+      </c>
+      <c r="D200">
+        <v>0.78853955680941301</v>
+      </c>
+      <c r="E200">
+        <v>0.27416706261756302</v>
+      </c>
+      <c r="F200">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="G200">
+        <v>0.65798611111111105</v>
+      </c>
+      <c r="H200">
+        <v>0.80034722222222199</v>
+      </c>
+      <c r="I200">
+        <v>0.46304959170841498</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" hidden="1">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>425</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>0.78451575761959902</v>
+      </c>
+      <c r="E201">
+        <v>0.26774728721294899</v>
+      </c>
+      <c r="F201">
+        <v>0.73003472222222199</v>
+      </c>
+      <c r="G201">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="H201">
+        <v>0.75173611111111105</v>
+      </c>
+      <c r="I201">
+        <v>0.460503397318557</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" hidden="1">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>425</v>
+      </c>
+      <c r="C202">
+        <v>3</v>
+      </c>
+      <c r="D202">
+        <v>0.77463559751157296</v>
+      </c>
+      <c r="E202">
+        <v>0.30544811162721303</v>
+      </c>
+      <c r="F202">
+        <v>0.72569444444444398</v>
+      </c>
+      <c r="G202">
+        <v>0.74652777777777801</v>
+      </c>
+      <c r="H202">
+        <v>0.70486111111111105</v>
+      </c>
+      <c r="I202">
+        <v>0.45178123045699498</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" hidden="1">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>425</v>
+      </c>
+      <c r="C203">
+        <v>10</v>
+      </c>
+      <c r="D203">
+        <v>0.75883578076774605</v>
+      </c>
+      <c r="E203">
+        <v>0.28171411062646401</v>
+      </c>
+      <c r="F203">
+        <v>0.71788194444444398</v>
+      </c>
+      <c r="G203">
+        <v>0.72743055555555602</v>
+      </c>
+      <c r="H203">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="I203">
+        <v>0.43584337302481901</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" hidden="1">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>425</v>
+      </c>
+      <c r="C204">
+        <v>30</v>
+      </c>
+      <c r="D204">
+        <v>0.75151156201774705</v>
+      </c>
+      <c r="E204">
+        <v>0.25279980578089301</v>
+      </c>
+      <c r="F204">
+        <v>0.71614583333333304</v>
+      </c>
+      <c r="G204">
+        <v>0.72048611111111105</v>
+      </c>
+      <c r="H204">
+        <v>0.71180555555555602</v>
+      </c>
+      <c r="I204">
+        <v>0.43230795461767701</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" hidden="1">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>425</v>
+      </c>
+      <c r="C205">
+        <v>100</v>
+      </c>
+      <c r="D205">
+        <v>0.76682309751157496</v>
+      </c>
+      <c r="E205">
+        <v>0.25855742352831101</v>
+      </c>
+      <c r="F205">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="G205">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="H205">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="I205">
+        <v>0.45833333333333298</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>400</v>
+      </c>
+      <c r="C206">
+        <v>0.3</v>
+      </c>
+      <c r="D206">
+        <v>0.78344274450231499</v>
+      </c>
+      <c r="E206">
+        <v>0.35773571414184602</v>
+      </c>
+      <c r="F206">
+        <v>0.72135416666666696</v>
+      </c>
+      <c r="G206">
+        <v>0.75</v>
+      </c>
+      <c r="H206">
+        <v>0.69270833333333304</v>
+      </c>
+      <c r="I206">
+        <v>0.44343668539022302</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" hidden="1">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>400</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>0.78687879774305503</v>
+      </c>
+      <c r="E207">
+        <v>0.187196090286256</v>
+      </c>
+      <c r="F207">
+        <v>0.7265625</v>
+      </c>
+      <c r="G207">
+        <v>0.65625</v>
+      </c>
+      <c r="H207">
+        <v>0.796875</v>
+      </c>
+      <c r="I207">
+        <v>0.457672926984593</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" hidden="1">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>400</v>
+      </c>
+      <c r="C208">
+        <v>3</v>
+      </c>
+      <c r="D208">
+        <v>0.77993435329861005</v>
+      </c>
+      <c r="E208">
+        <v>0.24099131349897701</v>
+      </c>
+      <c r="F208">
+        <v>0.72569444444444398</v>
+      </c>
+      <c r="G208">
+        <v>0.71006944444444398</v>
+      </c>
+      <c r="H208">
+        <v>0.74131944444444398</v>
+      </c>
+      <c r="I208">
+        <v>0.45160945518052198</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" hidden="1">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>400</v>
+      </c>
+      <c r="C209">
+        <v>10</v>
+      </c>
+      <c r="D209">
+        <v>0.767377688560958</v>
+      </c>
+      <c r="E209">
+        <v>0.31144922972248201</v>
+      </c>
+      <c r="F209">
+        <v>0.71788194444444398</v>
+      </c>
+      <c r="G209">
+        <v>0.76388888888888895</v>
+      </c>
+      <c r="H209">
+        <v>0.671875</v>
+      </c>
+      <c r="I209">
+        <v>0.43762039553370902</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" hidden="1">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>400</v>
+      </c>
+      <c r="C210">
+        <v>30</v>
+      </c>
+      <c r="D210">
+        <v>0.754824037905093</v>
+      </c>
+      <c r="E210">
+        <v>0.15853592035823699</v>
+      </c>
+      <c r="F210">
+        <v>0.70920138888888895</v>
+      </c>
+      <c r="G210">
+        <v>0.65451388888888895</v>
+      </c>
+      <c r="H210">
+        <v>0.76388888888888895</v>
+      </c>
+      <c r="I210">
+        <v>0.42092811155424997</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" hidden="1">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>400</v>
+      </c>
+      <c r="C211">
+        <v>100</v>
+      </c>
+      <c r="D211">
+        <v>0.77139244550540198</v>
+      </c>
+      <c r="E211">
+        <v>0.25593321187983298</v>
+      </c>
+      <c r="F211">
+        <v>0.72569444444444398</v>
+      </c>
+      <c r="G211">
+        <v>0.73090277777777801</v>
+      </c>
+      <c r="H211">
+        <v>0.72048611111111105</v>
+      </c>
+      <c r="I211">
+        <v>0.45141338029656802</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>375</v>
+      </c>
+      <c r="C212">
+        <v>0.3</v>
+      </c>
+      <c r="D212">
+        <v>0.78306297019675797</v>
+      </c>
+      <c r="E212">
+        <v>0.37160867184153401</v>
+      </c>
+      <c r="F212">
+        <v>0.73003472222222199</v>
+      </c>
+      <c r="G212">
+        <v>0.77604166666666696</v>
+      </c>
+      <c r="H212">
+        <v>0.68402777777777801</v>
+      </c>
+      <c r="I212">
+        <v>0.46202950126068898</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" hidden="1">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>375</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>0.78471468701774705</v>
+      </c>
+      <c r="E213">
+        <v>0.31013247437395403</v>
+      </c>
+      <c r="F213">
+        <v>0.73350694444444398</v>
+      </c>
+      <c r="G213">
+        <v>0.75694444444444398</v>
+      </c>
+      <c r="H213">
+        <v>0.71006944444444398</v>
+      </c>
+      <c r="I213">
+        <v>0.46752781274678201</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" hidden="1">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>375</v>
+      </c>
+      <c r="C214">
+        <v>3</v>
+      </c>
+      <c r="D214">
+        <v>0.78158908420138895</v>
+      </c>
+      <c r="E214">
+        <v>0.243250090769354</v>
+      </c>
+      <c r="F214">
+        <v>0.73524305555555602</v>
+      </c>
+      <c r="G214">
+        <v>0.72048611111111105</v>
+      </c>
+      <c r="H214">
+        <v>0.75</v>
+      </c>
+      <c r="I214">
+        <v>0.47069115816162499</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" hidden="1">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>375</v>
+      </c>
+      <c r="C215">
+        <v>10</v>
+      </c>
+      <c r="D215">
+        <v>0.77054850260416696</v>
+      </c>
+      <c r="E215">
+        <v>0.23076312549528499</v>
+      </c>
+      <c r="F215">
+        <v>0.73003472222222199</v>
+      </c>
+      <c r="G215">
+        <v>0.71701388888888895</v>
+      </c>
+      <c r="H215">
+        <v>0.74305555555555602</v>
+      </c>
+      <c r="I215">
+        <v>0.460225526116329</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" hidden="1">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>375</v>
+      </c>
+      <c r="C216">
+        <v>30</v>
+      </c>
+      <c r="D216">
+        <v>0.76908667293595701</v>
+      </c>
+      <c r="E216">
+        <v>0.17445232225525301</v>
+      </c>
+      <c r="F216">
+        <v>0.72309027777777801</v>
+      </c>
+      <c r="G216">
+        <v>0.68055555555555602</v>
+      </c>
+      <c r="H216">
+        <v>0.765625</v>
+      </c>
+      <c r="I216">
+        <v>0.44780383344136498</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" hidden="1">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>375</v>
+      </c>
+      <c r="C217">
+        <v>100</v>
+      </c>
+      <c r="D217">
+        <v>0.76531002845293306</v>
+      </c>
+      <c r="E217">
+        <v>0.19396650555860401</v>
+      </c>
+      <c r="F217">
+        <v>0.72309027777777801</v>
+      </c>
+      <c r="G217">
+        <v>0.71006944444444398</v>
+      </c>
+      <c r="H217">
+        <v>0.73611111111111105</v>
+      </c>
+      <c r="I217">
+        <v>0.44633192532791099</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>350</v>
+      </c>
+      <c r="C218">
+        <v>0.3</v>
+      </c>
+      <c r="D218">
+        <v>0.78657738956404299</v>
+      </c>
+      <c r="E218">
+        <v>0.35520746965348599</v>
+      </c>
+      <c r="F218">
+        <v>0.73350694444444398</v>
+      </c>
+      <c r="G218">
+        <v>0.77256944444444398</v>
+      </c>
+      <c r="H218">
+        <v>0.69444444444444398</v>
+      </c>
+      <c r="I218">
+        <v>0.46844565964304202</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" hidden="1">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>350</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>0.78675220630787102</v>
+      </c>
+      <c r="E219">
+        <v>0.193378852723951</v>
+      </c>
+      <c r="F219">
+        <v>0.73784722222222199</v>
+      </c>
+      <c r="G219">
+        <v>0.68923611111111105</v>
+      </c>
+      <c r="H219">
+        <v>0.78645833333333304</v>
+      </c>
+      <c r="I219">
+        <v>0.477958678694545</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" hidden="1">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>350</v>
+      </c>
+      <c r="C220">
+        <v>3</v>
+      </c>
+      <c r="D220">
+        <v>0.78299967447916596</v>
+      </c>
+      <c r="E220">
+        <v>0.19315539739738499</v>
+      </c>
+      <c r="F220">
+        <v>0.73524305555555602</v>
+      </c>
+      <c r="G220">
+        <v>0.69444444444444398</v>
+      </c>
+      <c r="H220">
+        <v>0.77604166666666696</v>
+      </c>
+      <c r="I220">
+        <v>0.47206024943101299</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" hidden="1">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>350</v>
+      </c>
+      <c r="C221">
+        <v>10</v>
+      </c>
+      <c r="D221">
+        <v>0.77899998794367298</v>
+      </c>
+      <c r="E221">
+        <v>0.21498886548740101</v>
+      </c>
+      <c r="F221">
+        <v>0.73697916666666696</v>
+      </c>
+      <c r="G221">
+        <v>0.71701388888888895</v>
+      </c>
+      <c r="H221">
+        <v>0.75694444444444398</v>
+      </c>
+      <c r="I221">
+        <v>0.47433663704162299</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" hidden="1">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>350</v>
+      </c>
+      <c r="C222">
+        <v>30</v>
+      </c>
+      <c r="D222">
+        <v>0.77181441695601904</v>
+      </c>
+      <c r="E222">
+        <v>0.20540237469386799</v>
+      </c>
+      <c r="F222">
+        <v>0.72135416666666696</v>
+      </c>
+      <c r="G222">
+        <v>0.70659722222222199</v>
+      </c>
+      <c r="H222">
+        <v>0.73611111111111105</v>
+      </c>
+      <c r="I222">
+        <v>0.44290127428492398</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" hidden="1">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>350</v>
+      </c>
+      <c r="C223">
+        <v>100</v>
+      </c>
+      <c r="D223">
+        <v>0.76536428192515404</v>
+      </c>
+      <c r="E223">
+        <v>0.29716772789858398</v>
+      </c>
+      <c r="F223">
+        <v>0.73090277777777801</v>
+      </c>
+      <c r="G223">
+        <v>0.76736111111111105</v>
+      </c>
+      <c r="H223">
+        <v>0.69444444444444398</v>
+      </c>
+      <c r="I223">
+        <v>0.46303814604330801</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>325</v>
+      </c>
+      <c r="C224">
+        <v>0.3</v>
+      </c>
+      <c r="D224">
+        <v>0.78483826437114201</v>
+      </c>
+      <c r="E224">
+        <v>0.31478701987227298</v>
+      </c>
+      <c r="F224">
+        <v>0.73090277777777801</v>
+      </c>
+      <c r="G224">
+        <v>0.76909722222222199</v>
+      </c>
+      <c r="H224">
+        <v>0.69270833333333304</v>
+      </c>
+      <c r="I224">
+        <v>0.46315885939087698</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" hidden="1">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>325</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>0.78782521942515504</v>
+      </c>
+      <c r="E225">
+        <v>0.25732611416022499</v>
+      </c>
+      <c r="F225">
+        <v>0.73350694444444398</v>
+      </c>
+      <c r="G225">
+        <v>0.76215277777777801</v>
+      </c>
+      <c r="H225">
+        <v>0.70486111111111105</v>
+      </c>
+      <c r="I225">
+        <v>0.46778222890184401</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" hidden="1">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>325</v>
+      </c>
+      <c r="C226">
+        <v>3</v>
+      </c>
+      <c r="D226">
+        <v>0.78594443238811695</v>
+      </c>
+      <c r="E226">
+        <v>0.26537614182208202</v>
+      </c>
+      <c r="F226">
+        <v>0.73177083333333304</v>
+      </c>
+      <c r="G226">
+        <v>0.76909722222222199</v>
+      </c>
+      <c r="H226">
+        <v>0.69444444444444398</v>
+      </c>
+      <c r="I226">
+        <v>0.46483875822924198</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" hidden="1">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>325</v>
+      </c>
+      <c r="C227">
+        <v>10</v>
+      </c>
+      <c r="D227">
+        <v>0.78296049141589596</v>
+      </c>
+      <c r="E227">
+        <v>0.25468871926696501</v>
+      </c>
+      <c r="F227">
+        <v>0.734375</v>
+      </c>
+      <c r="G227">
+        <v>0.76388888888888895</v>
+      </c>
+      <c r="H227">
+        <v>0.70486111111111105</v>
+      </c>
+      <c r="I227">
+        <v>0.46956876801923098</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" hidden="1">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>325</v>
+      </c>
+      <c r="C228">
+        <v>30</v>
+      </c>
+      <c r="D228">
+        <v>0.77251066984953598</v>
+      </c>
+      <c r="E228">
+        <v>0.31190581058182998</v>
+      </c>
+      <c r="F228">
+        <v>0.72309027777777801</v>
+      </c>
+      <c r="G228">
+        <v>0.796875</v>
+      </c>
+      <c r="H228">
+        <v>0.64930555555555602</v>
+      </c>
+      <c r="I228">
+        <v>0.45111954913074398</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" hidden="1">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>325</v>
+      </c>
+      <c r="C229">
+        <v>100</v>
+      </c>
+      <c r="D229">
+        <v>0.77375548562885799</v>
+      </c>
+      <c r="E229">
+        <v>0.233837914790227</v>
+      </c>
+      <c r="F229">
+        <v>0.73090277777777801</v>
+      </c>
+      <c r="G229">
+        <v>0.75868055555555602</v>
+      </c>
+      <c r="H229">
+        <v>0.703125</v>
+      </c>
+      <c r="I229">
+        <v>0.46251987238705899</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>300</v>
+      </c>
+      <c r="C230">
+        <v>0.3</v>
+      </c>
+      <c r="D230">
+        <v>0.78787796585648295</v>
+      </c>
+      <c r="E230">
+        <v>0.33147328363223999</v>
+      </c>
+      <c r="F230">
+        <v>0.73177083333333304</v>
+      </c>
+      <c r="G230">
+        <v>0.79340277777777801</v>
+      </c>
+      <c r="H230">
+        <v>0.67013888888888895</v>
+      </c>
+      <c r="I230">
+        <v>0.46710383396608601</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" hidden="1">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>300</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>0.79114523051697505</v>
+      </c>
+      <c r="E231">
+        <v>0.29029758023049101</v>
+      </c>
+      <c r="F231">
+        <v>0.73524305555555602</v>
+      </c>
+      <c r="G231">
+        <v>0.79340277777777801</v>
+      </c>
+      <c r="H231">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="I231">
+        <v>0.47370166720811302</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" hidden="1">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>300</v>
+      </c>
+      <c r="C232">
+        <v>3</v>
+      </c>
+      <c r="D232">
+        <v>0.79256184895833204</v>
+      </c>
+      <c r="E232">
+        <v>0.33326701596661001</v>
+      </c>
+      <c r="F232">
+        <v>0.73350694444444398</v>
+      </c>
+      <c r="G232">
+        <v>0.82291666666666696</v>
+      </c>
+      <c r="H232">
+        <v>0.64409722222222199</v>
+      </c>
+      <c r="I232">
+        <v>0.47466457683490298</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" hidden="1">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>300</v>
+      </c>
+      <c r="C233">
+        <v>10</v>
+      </c>
+      <c r="D233">
+        <v>0.78894495081018501</v>
+      </c>
+      <c r="E233">
+        <v>0.32465728942607303</v>
+      </c>
+      <c r="F233">
+        <v>0.73263888888888895</v>
+      </c>
+      <c r="G233">
+        <v>0.8125</v>
+      </c>
+      <c r="H233">
+        <v>0.65277777777777801</v>
+      </c>
+      <c r="I233">
+        <v>0.47132869617988299</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" hidden="1">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>300</v>
+      </c>
+      <c r="C234">
+        <v>30</v>
+      </c>
+      <c r="D234">
+        <v>0.77465518904320896</v>
+      </c>
+      <c r="E234">
+        <v>0.32239714269407799</v>
+      </c>
+      <c r="F234">
+        <v>0.7265625</v>
+      </c>
+      <c r="G234">
+        <v>0.8125</v>
+      </c>
+      <c r="H234">
+        <v>0.640625</v>
+      </c>
+      <c r="I234">
+        <v>0.45996991971652401</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" hidden="1">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>300</v>
+      </c>
+      <c r="C235">
+        <v>100</v>
+      </c>
+      <c r="D235">
+        <v>0.77565887827932001</v>
+      </c>
+      <c r="E235">
+        <v>0.19583936688685899</v>
+      </c>
+      <c r="F235">
+        <v>0.7265625</v>
+      </c>
+      <c r="G235">
+        <v>0.75</v>
+      </c>
+      <c r="H235">
+        <v>0.703125</v>
+      </c>
+      <c r="I235">
+        <v>0.453623639876989</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>275</v>
+      </c>
+      <c r="C236">
+        <v>0.3</v>
+      </c>
+      <c r="D236">
+        <v>0.78867066936728403</v>
+      </c>
+      <c r="E236">
+        <v>0.279212266627129</v>
+      </c>
+      <c r="F236">
+        <v>0.734375</v>
+      </c>
+      <c r="G236">
+        <v>0.80381944444444398</v>
+      </c>
+      <c r="H236">
+        <v>0.66493055555555602</v>
+      </c>
+      <c r="I236">
+        <v>0.47333760197614999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" hidden="1">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>275</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>0.79109700520833204</v>
+      </c>
+      <c r="E237">
+        <v>0.26594177056721502</v>
+      </c>
+      <c r="F237">
+        <v>0.73263888888888895</v>
+      </c>
+      <c r="G237">
+        <v>0.80729166666666696</v>
+      </c>
+      <c r="H237">
+        <v>0.65798611111111105</v>
+      </c>
+      <c r="I237">
+        <v>0.470552146968023</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" hidden="1">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>275</v>
+      </c>
+      <c r="C238">
+        <v>3</v>
+      </c>
+      <c r="D238">
+        <v>0.79170584972993696</v>
+      </c>
+      <c r="E238">
+        <v>0.26776108080718702</v>
+      </c>
+      <c r="F238">
+        <v>0.73177083333333304</v>
+      </c>
+      <c r="G238">
+        <v>0.81423611111111105</v>
+      </c>
+      <c r="H238">
+        <v>0.64930555555555602</v>
+      </c>
+      <c r="I238">
+        <v>0.469977928913836</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" hidden="1">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>275</v>
+      </c>
+      <c r="C239">
+        <v>10</v>
+      </c>
+      <c r="D239">
+        <v>0.78597608024691301</v>
+      </c>
+      <c r="E239">
+        <v>0.148144461708416</v>
+      </c>
+      <c r="F239">
+        <v>0.73784722222222199</v>
+      </c>
+      <c r="G239">
+        <v>0.73090277777777801</v>
+      </c>
+      <c r="H239">
+        <v>0.74479166666666696</v>
+      </c>
+      <c r="I239">
+        <v>0.47574033210619598</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" hidden="1">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>275</v>
+      </c>
+      <c r="C240">
+        <v>30</v>
+      </c>
+      <c r="D240">
+        <v>0.79660976080247003</v>
+      </c>
+      <c r="E240">
+        <v>0.17458844763407999</v>
+      </c>
+      <c r="F240">
+        <v>0.734375</v>
+      </c>
+      <c r="G240">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="H240">
+        <v>0.69791666666666696</v>
+      </c>
+      <c r="I240">
+        <v>0.47000112568305602</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" hidden="1">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>275</v>
+      </c>
+      <c r="C241">
+        <v>100</v>
+      </c>
+      <c r="D241">
+        <v>0.773398316936729</v>
+      </c>
+      <c r="E241">
+        <v>0.25358286114401402</v>
+      </c>
+      <c r="F241">
+        <v>0.72395833333333304</v>
+      </c>
+      <c r="G241">
+        <v>0.81770833333333304</v>
+      </c>
+      <c r="H241">
+        <v>0.63020833333333304</v>
+      </c>
+      <c r="I241">
+        <v>0.45600408013264099</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>250</v>
+      </c>
+      <c r="C242">
+        <v>0.3</v>
+      </c>
+      <c r="D242">
+        <v>0.76943329234182101</v>
+      </c>
+      <c r="E242">
+        <v>0.20476019282819399</v>
+      </c>
+      <c r="F242">
+        <v>0.72395833333333304</v>
+      </c>
+      <c r="G242">
+        <v>0.78125</v>
+      </c>
+      <c r="H242">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="I242">
+        <v>0.45088636669115401</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" hidden="1">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>250</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>0.77019284095293195</v>
+      </c>
+      <c r="E243">
+        <v>0.222869900462593</v>
+      </c>
+      <c r="F243">
+        <v>0.72135416666666696</v>
+      </c>
+      <c r="G243">
+        <v>0.80555555555555602</v>
+      </c>
+      <c r="H243">
+        <v>0.63715277777777801</v>
+      </c>
+      <c r="I243">
+        <v>0.44912258154880602</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" hidden="1">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>250</v>
+      </c>
+      <c r="C244">
+        <v>3</v>
+      </c>
+      <c r="D244">
+        <v>0.77110007957175897</v>
+      </c>
+      <c r="E244">
+        <v>0.213389803552199</v>
+      </c>
+      <c r="F244">
+        <v>0.72309027777777801</v>
+      </c>
+      <c r="G244">
+        <v>0.80381944444444398</v>
+      </c>
+      <c r="H244">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="I244">
+        <v>0.452112483867876</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" hidden="1">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>250</v>
+      </c>
+      <c r="C245">
+        <v>10</v>
+      </c>
+      <c r="D245">
+        <v>0.76946041907793195</v>
+      </c>
+      <c r="E245">
+        <v>0.199250795418109</v>
+      </c>
+      <c r="F245">
+        <v>0.72569444444444398</v>
+      </c>
+      <c r="G245">
+        <v>0.8125</v>
+      </c>
+      <c r="H245">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="I245">
+        <v>0.45834924851410602</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" hidden="1">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>250</v>
+      </c>
+      <c r="C246">
+        <v>30</v>
+      </c>
+      <c r="D246">
+        <v>0.74095323350694497</v>
+      </c>
+      <c r="E246">
+        <v>0.249593672323287</v>
+      </c>
+      <c r="F246">
+        <v>0.70225694444444398</v>
+      </c>
+      <c r="G246">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="H246">
+        <v>0.61284722222222199</v>
+      </c>
+      <c r="I246">
+        <v>0.41114069294621702</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" hidden="1">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>250</v>
+      </c>
+      <c r="C247">
+        <v>100</v>
+      </c>
+      <c r="D247">
+        <v>0.76227786217206805</v>
+      </c>
+      <c r="E247">
+        <v>0.12394546659641099</v>
+      </c>
+      <c r="F247">
+        <v>0.71875</v>
+      </c>
+      <c r="G247">
+        <v>0.76388888888888895</v>
+      </c>
+      <c r="H247">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="I247">
+        <v>0.43929380157221798</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J163">
+  <autoFilter ref="A1:J247">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="0.3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A2:J247">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Code/R/Magnan/PerfSearch_Regression_PSF10.xlsx
+++ b/Code/R/Magnan/PerfSearch_Regression_PSF10.xlsx
@@ -4,15 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TenfoldCV_Coarse" sheetId="6" r:id="rId1"/>
     <sheet name="TenfoldCV" sheetId="1" r:id="rId2"/>
-    <sheet name="Jackknife" sheetId="2" r:id="rId3"/>
-    <sheet name="IndependentTest" sheetId="3" r:id="rId4"/>
-    <sheet name="ThresholdTuning" sheetId="4" r:id="rId5"/>
-    <sheet name="FeatureSpaceCmp" sheetId="8" r:id="rId6"/>
+    <sheet name="IndependentTest" sheetId="4" r:id="rId3"/>
+    <sheet name="FeatureSpaceCmp" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TenfoldCV!$A$1:$J$247</definedName>
@@ -23,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>MCC</t>
   </si>
@@ -40,15 +38,6 @@
     <t>cost</t>
   </si>
   <si>
-    <t>Enrichment</t>
-  </si>
-  <si>
-    <t>Rank %</t>
-  </si>
-  <si>
-    <t>2800/10</t>
-  </si>
-  <si>
     <t>Accuracy</t>
   </si>
   <si>
@@ -56,9 +45,6 @@
   </si>
   <si>
     <t>Specificity</t>
-  </si>
-  <si>
-    <t>2800/1</t>
   </si>
   <si>
     <t>PSF</t>
@@ -80,6 +66,9 @@
   </si>
   <si>
     <t>BEST</t>
+  </si>
+  <si>
+    <t>Precision</t>
   </si>
 </sst>
 </file>
@@ -564,7 +553,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -576,7 +565,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -853,23 +841,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="85250816"/>
-        <c:axId val="85252736"/>
+        <c:axId val="39715584"/>
+        <c:axId val="40569088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85250816"/>
+        <c:axId val="39715584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85252736"/>
+        <c:crossAx val="40569088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85252736"/>
+        <c:axId val="40569088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -877,7 +865,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85250816"/>
+        <c:crossAx val="39715584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -890,7 +878,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2036,23 +2024,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="116182016"/>
-        <c:axId val="116157440"/>
+        <c:axId val="116761344"/>
+        <c:axId val="116763648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="116182016"/>
+        <c:axId val="116761344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116157440"/>
+        <c:crossAx val="116763648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="116157440"/>
+        <c:axId val="116763648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2060,7 +2048,2582 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116182016"/>
+        <c:crossAx val="116761344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IndependentTest!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sensitivity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>IndependentTest!$A$2:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>IndependentTest!$C$2:$C$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>0.83561643835616395</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83561643835616395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82191780821917804</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80821917808219201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78082191780821897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76712328767123295</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73972602739726001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73972602739726001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73972602739726001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72602739726027399</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72602739726027399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.71232876712328796</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.71232876712328796</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.69863013698630105</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.69863013698630105</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.69863013698630105</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.67123287671232901</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.65753424657534199</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.64383561643835596</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.64383561643835596</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.64383561643835596</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.64383561643835596</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.64383561643835596</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.63013698630137005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.63013698630137005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.602739726027397</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.602739726027397</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.602739726027397</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.602739726027397</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.602739726027397</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.58904109589041098</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.58904109589041098</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.58904109589041098</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.58904109589041098</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.57534246575342496</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.54794520547945202</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.54794520547945202</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.54794520547945202</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.54794520547945202</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.49315068493150699</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.49315068493150699</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.47945205479452102</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.47945205479452102</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.465753424657534</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.465753424657534</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.465753424657534</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.45205479452054798</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.45205479452054798</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.43835616438356201</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.43835616438356201</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.43835616438356201</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.42465753424657499</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.42465753424657499</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.41095890410958902</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.41095890410958902</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.397260273972603</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.397260273972603</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.397260273972603</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.397260273972603</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.397260273972603</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.397260273972603</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.38356164383561597</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.36986301369863001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.36986301369863001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.35616438356164398</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.35616438356164398</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.35616438356164398</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.34246575342465801</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.31506849315068503</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.31506849315068503</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.31506849315068503</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.31506849315068503</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.31506849315068503</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.31506849315068503</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.31506849315068503</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.301369863013699</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.28767123287671198</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.28767123287671198</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.28767123287671198</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.26027397260273999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.26027397260273999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.26027397260273999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.26027397260273999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.26027397260273999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.26027397260273999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.24657534246575299</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.24657534246575299</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.24657534246575299</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.24657534246575299</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.24657534246575299</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.24657534246575299</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.24657534246575299</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.232876712328767</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.20547945205479501</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.20547945205479501</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.19178082191780799</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.150684931506849</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.150684931506849</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.150684931506849</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IndependentTest!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Specificity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>IndependentTest!$A$2:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>IndependentTest!$D$2:$D$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>0.228057553956835</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.243165467625899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25683453237410098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27194244604316498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29424460431654698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30863309352517998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32517985611510802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33956834532374103</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35539568345323702</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.37482014388489199</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38992805755395699</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.410071942446043</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.42589928057554</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.433093525179856</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.44316546762589898</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.45611510791366899</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.46474820143884898</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.47482014388489202</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.485611510791367</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.49496402877697798</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.50071942446043205</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.51366906474820095</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.52589928057554003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.53237410071942404</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.54172661870503602</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.54820143884892103</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.55899280575539601</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.56474820143884896</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.56906474820143904</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.57769784172661898</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.58633093525179902</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.589208633093525</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.59568345323741001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.60359712230215801</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.61079136690647495</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.61798561151079101</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.62517985611510796</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63093525179856103</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.64028776978417301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.64676258992805802</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.649640287769784</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.65467625899280601</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.66258992805755401</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.66762589928057603</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.66978417266187096</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.67625899280575497</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.68345323741007202</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.68920863309352498</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.694244604316547</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.69928057553956802</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.70359712230215798</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.70935251798561105</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.71079136690647504</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.71438848920863296</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.71726618705036005</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.72158273381295002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.72661870503597104</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.72877697841726596</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.73309352517985604</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.73597122302158302</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.738848920863309</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.74100719424460404</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.74316546762589897</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.74892086330935204</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.75251798561151095</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.75611510791366898</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.76187050359712205</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.76546762589928097</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.77050359712230199</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.77266187050359703</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.77482014388489195</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.775539568345324</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.77985611510791397</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.78561151079136704</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.79280575539568299</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.79640287769784202</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.80359712230215796</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.80647482014388505</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.80935251798561103</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.81510791366906499</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.81654676258992798</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.82086330935251794</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82661870503597101</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83021582733812904</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.83453237410071901</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.83812949640287804</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.84172661870503596</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.84460431654676305</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.84964028776978395</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.85467625899280597</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.86043165467625904</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.86474820143884901</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.86762589928057599</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.87122302158273401</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.87410071942445999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.87985611510791395</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.88489208633093497</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.88920863309352505</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.89208633093525203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IndependentTest!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>IndependentTest!$A$2:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>IndependentTest!$E$2:$E$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>3.3206754744152002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0208114630602199E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9447670093448101E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9409195472243898E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6001615029962103E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.58311003326739E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0247299495968199E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6562620902725801E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3403824407296697E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5485193946487E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.1907422067018802E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.4312623677844403E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.0999363624408103E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.7990833560625198E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.2257873876472601E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.77481523971213E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.94255644329445E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.7752674131808603E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.6418917904721699E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.0459864771736101E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.2954150553202498E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.8592603560528098E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.3958770217918093E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.0851577415702902E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.5005842618925997E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5948306731352199E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.07971882217929E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.3403672330710601E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.5368676211849006E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.9326711646332801E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7304819441077297E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.8642928563691705E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.1671797527774703E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5409891873273497E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.27786876005107E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.4061993973838502E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.7525409998231806E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.0324580256464606E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.4931111278763405E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.3457728194534796E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.4871630091799498E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.11478950941481E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.5082014101002006E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.13484036871247E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.2433730592171298E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.5717513632470401E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.3079130797347005E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.6055171255716902E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.2295658584901097E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.4937001047205706E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.7225757638888703E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.3835905161679196E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.4607324386440998E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.0033038045655303E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.1582170718592899E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.7361758775874697E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.01013860912641E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.1286842453957699E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.3678950250890903E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.5289889740516499E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.6914236374128397E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1440982071842801E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.5934580851991898E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.9185814940003897E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.4439858064140298E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.6496515756127602E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.9836688108975501E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.5032425341327303E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.4023555165321998E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.5272633186049301E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.6530961723046098E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.69524994082696E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.9504327765929702E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.2969574696494499E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.7409026113767199E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.24061698500378E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.9591601465949799E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.1418919058108199E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.32691347131099E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.1952314931604902E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.2872724247335299E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.56707281230187E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.9491717232510599E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.1935569815684098E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.4928434935243298E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.9555743765175103E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.20933943591795E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.4160532267111199E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.7861847341548499E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.1677083109896398E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.6188786954311393E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.9687455033057094E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.3565061466016204E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.9243229146895301E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.1544543598319899E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.7372089229876103E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4110657827583901E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.7459482943797801E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.9757912962679899E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IndependentTest!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>IndependentTest!$A$2:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>IndependentTest!$F$2:$F$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>5.3791887125220497E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4806828391734001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4894784995425397E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5088702147525703E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4913294797687903E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5063913470993098E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4435483870967701E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5555555555555601E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6842105263157902E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7483731019522803E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.8823529411764698E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.9633027522935797E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.1176470588235297E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.0786650774731797E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.18181818181818E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.31970260223048E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.1790668348045398E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.1696658097686402E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.1679790026246697E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.2750333778371206E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.3427800269905493E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.5006915629322301E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.6572237960339897E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.6091954022988494E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.7349926793557793E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5476190476190493E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.6971080669710803E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.7796610169491497E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.8429237947122898E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.9730586370839898E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.9579288025890002E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.0032573289902297E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.1074380165289303E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.2390572390572394E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.2041166380789001E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.0052539404553402E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.1301247771835996E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.2332730560578706E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.4074074074074098E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.8311195445920306E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.8833652007648197E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.7961165048543701E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.9444444444444406E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.8548387096774202E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.8965517241379296E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.0247933884297495E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.9767441860465101E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.09677419354839E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.0021881838074396E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.1111111111111097E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.2072072072072099E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.1264367816091995E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.1593533487297897E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.0257611241217793E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.09219858156028E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.9711538461538505E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.0904645476772596E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.1428571428571397E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.2499999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.3232323232323204E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.3979591836734707E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.2164948453608199E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.03125E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.1808510638297907E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.0270270270270302E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.1232876712328794E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.2829131652661097E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.1225071225071199E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.7251461988304104E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.7846607669616504E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.8452380952381001E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.8656716417910393E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.9908814589665594E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.1651090342679094E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.3954983922829606E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.2131147540983598E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.1428571428571397E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.2413793103448296E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.3426573426573397E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.88405797101449E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.9343065693430697E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.0895522388059698E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.3076923076923095E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7.4509803921568599E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7.63052208835341E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.4074074074074098E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.5630252100840303E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.69230769230769E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.9295154185022004E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.1818181818181804E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8.4905660377358499E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.7378640776699004E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.45771144278607E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.7319587628865996E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.8947368421052599E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7.7348066298342497E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.4327485380116997E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.6666666666666693E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.8322981366459604E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="39289600"/>
+        <c:axId val="39255040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="39289600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39255040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="39255040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39289600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2128,6 +4691,41 @@
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2455,7 +5053,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2642,8 +5240,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q164" sqref="Q164"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2666,13 +5264,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>0</v>
@@ -5839,7 +8437,7 @@
         <v>0.51333079101764201</v>
       </c>
       <c r="J110" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:10" hidden="1">
@@ -9834,285 +12432,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1">
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1">
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:M120"/>
-  <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10123,652 +12447,2017 @@
     <col min="12" max="12" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>0.01</v>
+      </c>
+      <c r="B2">
+        <v>0.25837320574162698</v>
+      </c>
+      <c r="C2">
+        <v>0.83561643835616395</v>
+      </c>
+      <c r="D2">
+        <v>0.228057553956835</v>
+      </c>
+      <c r="E2">
+        <v>3.3206754744152002E-2</v>
+      </c>
+      <c r="F2">
+        <v>5.3791887125220497E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>0.02</v>
+      </c>
+      <c r="B3">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="C3">
+        <v>0.83561643835616395</v>
+      </c>
+      <c r="D3">
+        <v>0.243165467625899</v>
+      </c>
+      <c r="E3">
+        <v>4.0208114630602199E-2</v>
+      </c>
+      <c r="F3">
+        <v>5.4806828391734001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>0.03</v>
+      </c>
+      <c r="B4">
+        <v>0.28503075871496902</v>
+      </c>
+      <c r="C4">
+        <v>0.82191780821917804</v>
+      </c>
+      <c r="D4">
+        <v>0.25683453237410098</v>
+      </c>
+      <c r="E4">
+        <v>3.9447670093448101E-2</v>
+      </c>
+      <c r="F4">
+        <v>5.4894784995425397E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>0.04</v>
+      </c>
+      <c r="B5">
+        <v>0.29870129870129902</v>
+      </c>
+      <c r="C5">
+        <v>0.80821917808219201</v>
+      </c>
+      <c r="D5">
+        <v>0.27194244604316498</v>
+      </c>
+      <c r="E5">
+        <v>3.9409195472243898E-2</v>
+      </c>
+      <c r="F5">
+        <v>5.5088702147525703E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>0.05</v>
+      </c>
+      <c r="B6">
+        <v>0.31852358168147599</v>
+      </c>
+      <c r="C6">
+        <v>0.78082191780821897</v>
+      </c>
+      <c r="D6">
+        <v>0.29424460431654698</v>
+      </c>
+      <c r="E6">
+        <v>3.6001615029962103E-2</v>
+      </c>
+      <c r="F6">
+        <v>5.4913294797687903E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>0.06</v>
+      </c>
+      <c r="B7">
+        <v>0.33151059466848898</v>
+      </c>
+      <c r="C7">
+        <v>0.76712328767123295</v>
+      </c>
+      <c r="D7">
+        <v>0.30863309352517998</v>
+      </c>
+      <c r="E7">
+        <v>3.58311003326739E-2</v>
+      </c>
+      <c r="F7">
+        <v>5.5063913470993098E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B8">
+        <v>0.34586466165413499</v>
+      </c>
+      <c r="C8">
+        <v>0.73972602739726001</v>
+      </c>
+      <c r="D8">
+        <v>0.32517985611510802</v>
+      </c>
+      <c r="E8">
+        <v>3.0247299495968199E-2</v>
+      </c>
+      <c r="F8">
+        <v>5.4435483870967701E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>0.08</v>
+      </c>
+      <c r="B9">
+        <v>0.35953520164046499</v>
+      </c>
+      <c r="C9">
+        <v>0.73972602739726001</v>
+      </c>
+      <c r="D9">
+        <v>0.33956834532374103</v>
+      </c>
+      <c r="E9">
+        <v>3.6562620902725801E-2</v>
+      </c>
+      <c r="F9">
+        <v>5.5555555555555601E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>0.09</v>
+      </c>
+      <c r="B10">
+        <v>0.374572795625427</v>
+      </c>
+      <c r="C10">
+        <v>0.73972602739726001</v>
+      </c>
+      <c r="D10">
+        <v>0.35539568345323702</v>
+      </c>
+      <c r="E10">
+        <v>4.3403824407296697E-2</v>
+      </c>
+      <c r="F10">
+        <v>5.6842105263157902E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>0.1</v>
+      </c>
+      <c r="B11">
+        <v>0.392344497607655</v>
+      </c>
+      <c r="C11">
+        <v>0.72602739726027399</v>
+      </c>
+      <c r="D11">
+        <v>0.37482014388489199</v>
+      </c>
+      <c r="E11">
+        <v>4.5485193946487E-2</v>
+      </c>
+      <c r="F11">
+        <v>5.7483731019522803E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>0.11</v>
+      </c>
+      <c r="B12">
+        <v>0.406698564593301</v>
+      </c>
+      <c r="C12">
+        <v>0.72602739726027399</v>
+      </c>
+      <c r="D12">
+        <v>0.38992805755395699</v>
+      </c>
+      <c r="E12">
+        <v>5.1907422067018802E-2</v>
+      </c>
+      <c r="F12">
+        <v>5.8823529411764698E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>0.12</v>
+      </c>
+      <c r="B13">
+        <v>0.42515379357484601</v>
+      </c>
+      <c r="C13">
+        <v>0.71232876712328796</v>
+      </c>
+      <c r="D13">
+        <v>0.410071942446043</v>
+      </c>
+      <c r="E13">
+        <v>5.4312623677844403E-2</v>
+      </c>
+      <c r="F13">
+        <v>5.9633027522935797E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>0.13</v>
+      </c>
+      <c r="B14">
+        <v>0.44019138755980902</v>
+      </c>
+      <c r="C14">
+        <v>0.71232876712328796</v>
+      </c>
+      <c r="D14">
+        <v>0.42589928057554</v>
+      </c>
+      <c r="E14">
+        <v>6.0999363624408103E-2</v>
+      </c>
+      <c r="F14">
+        <v>6.1176470588235297E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B15">
+        <v>0.44634313055365699</v>
+      </c>
+      <c r="C15">
+        <v>0.69863013698630105</v>
+      </c>
+      <c r="D15">
+        <v>0.433093525179856</v>
+      </c>
+      <c r="E15">
+        <v>5.7990833560625198E-2</v>
+      </c>
+      <c r="F15">
+        <v>6.0786650774731797E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>0.15</v>
+      </c>
+      <c r="B16">
+        <v>0.45591250854408699</v>
+      </c>
+      <c r="C16">
+        <v>0.69863013698630105</v>
+      </c>
+      <c r="D16">
+        <v>0.44316546762589898</v>
+      </c>
+      <c r="E16">
+        <v>6.2257873876472601E-2</v>
+      </c>
+      <c r="F16">
+        <v>6.18181818181818E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>0.16</v>
+      </c>
+      <c r="B17">
+        <v>0.46821599453178397</v>
+      </c>
+      <c r="C17">
+        <v>0.69863013698630105</v>
+      </c>
+      <c r="D17">
+        <v>0.45611510791366899</v>
+      </c>
+      <c r="E17">
+        <v>6.77481523971213E-2</v>
+      </c>
+      <c r="F17">
+        <v>6.31970260223048E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>0.17</v>
+      </c>
+      <c r="B18">
+        <v>0.475051264524949</v>
+      </c>
+      <c r="C18">
+        <v>0.67123287671232901</v>
+      </c>
+      <c r="D18">
+        <v>0.46474820143884898</v>
+      </c>
+      <c r="E18">
+        <v>5.94255644329445E-2</v>
+      </c>
+      <c r="F18">
+        <v>6.1790668348045398E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>0.18</v>
+      </c>
+      <c r="B19">
+        <v>0.483937115516063</v>
+      </c>
+      <c r="C19">
+        <v>0.65753424657534199</v>
+      </c>
+      <c r="D19">
+        <v>0.47482014388489202</v>
+      </c>
+      <c r="E19">
+        <v>5.7752674131808603E-2</v>
+      </c>
+      <c r="F19">
+        <v>6.1696658097686402E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>0.19</v>
+      </c>
+      <c r="B20">
+        <v>0.493506493506494</v>
+      </c>
+      <c r="C20">
+        <v>0.64383561643835596</v>
+      </c>
+      <c r="D20">
+        <v>0.485611510791367</v>
+      </c>
+      <c r="E20">
+        <v>5.6418917904721699E-2</v>
+      </c>
+      <c r="F20">
+        <v>6.1679790026246697E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>0.2</v>
+      </c>
+      <c r="B21">
+        <v>0.50239234449760795</v>
+      </c>
+      <c r="C21">
+        <v>0.64383561643835596</v>
+      </c>
+      <c r="D21">
+        <v>0.49496402877697798</v>
+      </c>
+      <c r="E21">
+        <v>6.0459864771736101E-2</v>
+      </c>
+      <c r="F21">
+        <v>6.2750333778371206E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>0.21</v>
+      </c>
+      <c r="B22">
+        <v>0.50786056049213901</v>
+      </c>
+      <c r="C22">
+        <v>0.64383561643835596</v>
+      </c>
+      <c r="D22">
+        <v>0.50071942446043205</v>
+      </c>
+      <c r="E22">
+        <v>6.2954150553202498E-2</v>
+      </c>
+      <c r="F22">
+        <v>6.3427800269905493E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>0.22</v>
+      </c>
+      <c r="B23">
+        <v>0.52016404647983605</v>
+      </c>
+      <c r="C23">
+        <v>0.64383561643835596</v>
+      </c>
+      <c r="D23">
+        <v>0.51366906474820095</v>
+      </c>
+      <c r="E23">
+        <v>6.8592603560528098E-2</v>
+      </c>
+      <c r="F23">
+        <v>6.5006915629322301E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>0.23</v>
+      </c>
+      <c r="B24">
+        <v>0.53178400546821603</v>
+      </c>
+      <c r="C24">
+        <v>0.64383561643835596</v>
+      </c>
+      <c r="D24">
+        <v>0.52589928057554003</v>
+      </c>
+      <c r="E24">
+        <v>7.3958770217918093E-2</v>
+      </c>
+      <c r="F24">
+        <v>6.6572237960339897E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>0.24</v>
+      </c>
+      <c r="B25">
+        <v>0.53725222146274798</v>
+      </c>
+      <c r="C25">
+        <v>0.63013698630137005</v>
+      </c>
+      <c r="D25">
+        <v>0.53237410071942404</v>
+      </c>
+      <c r="E25">
+        <v>7.0851577415702902E-2</v>
+      </c>
+      <c r="F25">
+        <v>6.6091954022988494E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>0.25</v>
+      </c>
+      <c r="B26">
+        <v>0.54613807245386203</v>
+      </c>
+      <c r="C26">
+        <v>0.63013698630137005</v>
+      </c>
+      <c r="D26">
+        <v>0.54172661870503602</v>
+      </c>
+      <c r="E26">
+        <v>7.5005842618925997E-2</v>
+      </c>
+      <c r="F26">
+        <v>6.7349926793557793E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>0.26</v>
+      </c>
+      <c r="B27">
+        <v>0.55092276144907704</v>
+      </c>
+      <c r="C27">
+        <v>0.602739726027397</v>
+      </c>
+      <c r="D27">
+        <v>0.54820143884892103</v>
+      </c>
+      <c r="E27">
+        <v>6.5948306731352199E-2</v>
+      </c>
+      <c r="F27">
+        <v>6.5476190476190493E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>0.27</v>
+      </c>
+      <c r="B28">
+        <v>0.56117566643882399</v>
+      </c>
+      <c r="C28">
+        <v>0.602739726027397</v>
+      </c>
+      <c r="D28">
+        <v>0.55899280575539601</v>
+      </c>
+      <c r="E28">
+        <v>7.07971882217929E-2</v>
+      </c>
+      <c r="F28">
+        <v>6.6971080669710803E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="B29">
+        <v>0.56664388243335595</v>
+      </c>
+      <c r="C29">
+        <v>0.602739726027397</v>
+      </c>
+      <c r="D29">
+        <v>0.56474820143884896</v>
+      </c>
+      <c r="E29">
+        <v>7.3403672330710601E-2</v>
+      </c>
+      <c r="F29">
+        <v>6.7796610169491497E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="B30">
+        <v>0.570745044429255</v>
+      </c>
+      <c r="C30">
+        <v>0.602739726027397</v>
+      </c>
+      <c r="D30">
+        <v>0.56906474820143904</v>
+      </c>
+      <c r="E30">
+        <v>7.5368676211849006E-2</v>
+      </c>
+      <c r="F30">
+        <v>6.8429237947122898E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
         <v>0.3</v>
       </c>
-      <c r="C2" s="2">
+      <c r="B31">
+        <v>0.57894736842105299</v>
+      </c>
+      <c r="C31">
+        <v>0.602739726027397</v>
+      </c>
+      <c r="D31">
+        <v>0.57769784172661898</v>
+      </c>
+      <c r="E31">
+        <v>7.9326711646332801E-2</v>
+      </c>
+      <c r="F31">
+        <v>6.9730586370839898E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>0.31</v>
+      </c>
+      <c r="B32">
+        <v>0.58646616541353402</v>
+      </c>
+      <c r="C32">
+        <v>0.58904109589041098</v>
+      </c>
+      <c r="D32">
+        <v>0.58633093525179902</v>
+      </c>
+      <c r="E32">
+        <v>7.7304819441077297E-2</v>
+      </c>
+      <c r="F32">
+        <v>6.9579288025890002E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>0.32</v>
+      </c>
+      <c r="B33">
+        <v>0.58920027341079995</v>
+      </c>
+      <c r="C33">
+        <v>0.58904109589041098</v>
+      </c>
+      <c r="D33">
+        <v>0.589208633093525</v>
+      </c>
+      <c r="E33">
+        <v>7.8642928563691705E-2</v>
+      </c>
+      <c r="F33">
+        <v>7.0032573289902297E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>0.33</v>
+      </c>
+      <c r="B34">
+        <v>0.59535201640464797</v>
+      </c>
+      <c r="C34">
+        <v>0.58904109589041098</v>
+      </c>
+      <c r="D34">
+        <v>0.59568345323741001</v>
+      </c>
+      <c r="E34">
+        <v>8.1671797527774703E-2</v>
+      </c>
+      <c r="F34">
+        <v>7.1074380165289303E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>0.34</v>
+      </c>
+      <c r="B35">
+        <v>0.602870813397129</v>
+      </c>
+      <c r="C35">
+        <v>0.58904109589041098</v>
+      </c>
+      <c r="D35">
+        <v>0.60359712230215801</v>
+      </c>
+      <c r="E35">
+        <v>8.5409891873273497E-2</v>
+      </c>
+      <c r="F35">
+        <v>7.2390572390572394E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
         <v>0.35</v>
       </c>
-      <c r="D2" s="2">
+      <c r="B36">
+        <v>0.60902255639097702</v>
+      </c>
+      <c r="C36">
+        <v>0.57534246575342496</v>
+      </c>
+      <c r="D36">
+        <v>0.61079136690647495</v>
+      </c>
+      <c r="E36">
+        <v>8.27786876005107E-2</v>
+      </c>
+      <c r="F36">
+        <v>7.2041166380789001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>0.36</v>
+      </c>
+      <c r="B37">
+        <v>0.61449077238550898</v>
+      </c>
+      <c r="C37">
+        <v>0.54794520547945202</v>
+      </c>
+      <c r="D37">
+        <v>0.61798561151079101</v>
+      </c>
+      <c r="E37">
+        <v>7.4061993973838502E-2</v>
+      </c>
+      <c r="F37">
+        <v>7.0052539404553402E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>0.37</v>
+      </c>
+      <c r="B38">
+        <v>0.62132604237867395</v>
+      </c>
+      <c r="C38">
+        <v>0.54794520547945202</v>
+      </c>
+      <c r="D38">
+        <v>0.62517985611510796</v>
+      </c>
+      <c r="E38">
+        <v>7.7525409998231806E-2</v>
+      </c>
+      <c r="F38">
+        <v>7.1301247771835996E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>0.38</v>
+      </c>
+      <c r="B39">
+        <v>0.62679425837320601</v>
+      </c>
+      <c r="C39">
+        <v>0.54794520547945202</v>
+      </c>
+      <c r="D39">
+        <v>0.63093525179856103</v>
+      </c>
+      <c r="E39">
+        <v>8.0324580256464606E-2</v>
+      </c>
+      <c r="F39">
+        <v>7.2332730560578706E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>0.39</v>
+      </c>
+      <c r="B40">
+        <v>0.63568010936431996</v>
+      </c>
+      <c r="C40">
+        <v>0.54794520547945202</v>
+      </c>
+      <c r="D40">
+        <v>0.64028776978417301</v>
+      </c>
+      <c r="E40">
+        <v>8.4931111278763405E-2</v>
+      </c>
+      <c r="F40">
+        <v>7.4074074074074098E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
         <v>0.4</v>
       </c>
-      <c r="E2" s="2">
+      <c r="B41">
+        <v>0.63909774436090205</v>
+      </c>
+      <c r="C41">
+        <v>0.49315068493150699</v>
+      </c>
+      <c r="D41">
+        <v>0.64676258992805802</v>
+      </c>
+      <c r="E41">
+        <v>6.3457728194534796E-2</v>
+      </c>
+      <c r="F41">
+        <v>6.8311195445920306E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>0.41</v>
+      </c>
+      <c r="B42">
+        <v>0.64183185235816798</v>
+      </c>
+      <c r="C42">
+        <v>0.49315068493150699</v>
+      </c>
+      <c r="D42">
+        <v>0.649640287769784</v>
+      </c>
+      <c r="E42">
+        <v>6.4871630091799498E-2</v>
+      </c>
+      <c r="F42">
+        <v>6.8833652007648197E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>0.42</v>
+      </c>
+      <c r="B43">
+        <v>0.64593301435406703</v>
+      </c>
+      <c r="C43">
+        <v>0.47945205479452102</v>
+      </c>
+      <c r="D43">
+        <v>0.65467625899280601</v>
+      </c>
+      <c r="E43">
+        <v>6.11478950941481E-2</v>
+      </c>
+      <c r="F43">
+        <v>6.7961165048543701E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>0.43</v>
+      </c>
+      <c r="B44">
+        <v>0.65345181134654795</v>
+      </c>
+      <c r="C44">
+        <v>0.47945205479452102</v>
+      </c>
+      <c r="D44">
+        <v>0.66258992805755401</v>
+      </c>
+      <c r="E44">
+        <v>6.5082014101002006E-2</v>
+      </c>
+      <c r="F44">
+        <v>6.9444444444444406E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>0.44</v>
+      </c>
+      <c r="B45">
+        <v>0.657552973342447</v>
+      </c>
+      <c r="C45">
+        <v>0.465753424657534</v>
+      </c>
+      <c r="D45">
+        <v>0.66762589928057603</v>
+      </c>
+      <c r="E45">
+        <v>6.13484036871247E-2</v>
+      </c>
+      <c r="F45">
+        <v>6.8548387096774202E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
         <v>0.45</v>
       </c>
-      <c r="F2" s="2">
+      <c r="B46">
+        <v>0.65960355434039597</v>
+      </c>
+      <c r="C46">
+        <v>0.465753424657534</v>
+      </c>
+      <c r="D46">
+        <v>0.66978417266187096</v>
+      </c>
+      <c r="E46">
+        <v>6.2433730592171298E-2</v>
+      </c>
+      <c r="F46">
+        <v>6.8965517241379296E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>0.46</v>
+      </c>
+      <c r="B47">
+        <v>0.66575529733424499</v>
+      </c>
+      <c r="C47">
+        <v>0.465753424657534</v>
+      </c>
+      <c r="D47">
+        <v>0.67625899280575497</v>
+      </c>
+      <c r="E47">
+        <v>6.5717513632470401E-2</v>
+      </c>
+      <c r="F47">
+        <v>7.0247933884297495E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>0.47</v>
+      </c>
+      <c r="B48">
+        <v>0.67190704032809301</v>
+      </c>
+      <c r="C48">
+        <v>0.45205479452054798</v>
+      </c>
+      <c r="D48">
+        <v>0.68345323741007202</v>
+      </c>
+      <c r="E48">
+        <v>6.3079130797347005E-2</v>
+      </c>
+      <c r="F48">
+        <v>6.9767441860465101E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>0.48</v>
+      </c>
+      <c r="B49">
+        <v>0.67737525632262496</v>
+      </c>
+      <c r="C49">
+        <v>0.45205479452054798</v>
+      </c>
+      <c r="D49">
+        <v>0.68920863309352498</v>
+      </c>
+      <c r="E49">
+        <v>6.6055171255716902E-2</v>
+      </c>
+      <c r="F49">
+        <v>7.09677419354839E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>0.49</v>
+      </c>
+      <c r="B50">
+        <v>0.68147641831852401</v>
+      </c>
+      <c r="C50">
+        <v>0.43835616438356201</v>
+      </c>
+      <c r="D50">
+        <v>0.694244604316547</v>
+      </c>
+      <c r="E50">
+        <v>6.2295658584901097E-2</v>
+      </c>
+      <c r="F50">
+        <v>7.0021881838074396E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
         <v>0.5</v>
       </c>
-      <c r="G2" s="2">
+      <c r="B51">
+        <v>0.68626110731373902</v>
+      </c>
+      <c r="C51">
+        <v>0.43835616438356201</v>
+      </c>
+      <c r="D51">
+        <v>0.69928057553956802</v>
+      </c>
+      <c r="E51">
+        <v>6.4937001047205706E-2</v>
+      </c>
+      <c r="F51">
+        <v>7.1111111111111097E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="2" customFormat="1">
+      <c r="A52">
+        <v>0.51</v>
+      </c>
+      <c r="B52">
+        <v>0.69036226930963795</v>
+      </c>
+      <c r="C52">
+        <v>0.43835616438356201</v>
+      </c>
+      <c r="D52">
+        <v>0.70359712230215798</v>
+      </c>
+      <c r="E52">
+        <v>6.7225757638888703E-2</v>
+      </c>
+      <c r="F52">
+        <v>7.2072072072072099E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>0.52</v>
+      </c>
+      <c r="B53">
+        <v>0.69514695830485296</v>
+      </c>
+      <c r="C53">
+        <v>0.42465753424657499</v>
+      </c>
+      <c r="D53">
+        <v>0.70935251798561105</v>
+      </c>
+      <c r="E53">
+        <v>6.3835905161679196E-2</v>
+      </c>
+      <c r="F53">
+        <v>7.1264367816091995E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>0.53</v>
+      </c>
+      <c r="B54">
+        <v>0.69651401230348597</v>
+      </c>
+      <c r="C54">
+        <v>0.42465753424657499</v>
+      </c>
+      <c r="D54">
+        <v>0.71079136690647504</v>
+      </c>
+      <c r="E54">
+        <v>6.4607324386440998E-2</v>
+      </c>
+      <c r="F54">
+        <v>7.1593533487297897E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>0.54</v>
+      </c>
+      <c r="B55">
+        <v>0.69924812030075201</v>
+      </c>
+      <c r="C55">
+        <v>0.41095890410958902</v>
+      </c>
+      <c r="D55">
+        <v>0.71438848920863296</v>
+      </c>
+      <c r="E55">
+        <v>6.0033038045655303E-2</v>
+      </c>
+      <c r="F55">
+        <v>7.0257611241217793E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H2" s="2">
+      <c r="B56">
+        <v>0.70198222829801804</v>
+      </c>
+      <c r="C56">
+        <v>0.41095890410958902</v>
+      </c>
+      <c r="D56">
+        <v>0.71726618705036005</v>
+      </c>
+      <c r="E56">
+        <v>6.1582170718592899E-2</v>
+      </c>
+      <c r="F56">
+        <v>7.09219858156028E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="B57">
+        <v>0.70539986329460003</v>
+      </c>
+      <c r="C57">
+        <v>0.397260273972603</v>
+      </c>
+      <c r="D57">
+        <v>0.72158273381295002</v>
+      </c>
+      <c r="E57">
+        <v>5.7361758775874697E-2</v>
+      </c>
+      <c r="F57">
+        <v>6.9711538461538505E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="B58">
+        <v>0.71018455228981503</v>
+      </c>
+      <c r="C58">
+        <v>0.397260273972603</v>
+      </c>
+      <c r="D58">
+        <v>0.72661870503597104</v>
+      </c>
+      <c r="E58">
+        <v>6.01013860912641E-2</v>
+      </c>
+      <c r="F58">
+        <v>7.0904645476772596E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="B59">
+        <v>0.712235133287765</v>
+      </c>
+      <c r="C59">
+        <v>0.397260273972603</v>
+      </c>
+      <c r="D59">
+        <v>0.72877697841726596</v>
+      </c>
+      <c r="E59">
+        <v>6.1286842453957699E-2</v>
+      </c>
+      <c r="F59">
+        <v>7.1428571428571397E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>0.59</v>
+      </c>
+      <c r="B60">
+        <v>0.71633629528366405</v>
+      </c>
+      <c r="C60">
+        <v>0.397260273972603</v>
+      </c>
+      <c r="D60">
+        <v>0.73309352517985604</v>
+      </c>
+      <c r="E60">
+        <v>6.3678950250890903E-2</v>
+      </c>
+      <c r="F60">
+        <v>7.2499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
         <v>0.6</v>
       </c>
-      <c r="I2" s="2">
+      <c r="B61">
+        <v>0.71907040328092997</v>
+      </c>
+      <c r="C61">
+        <v>0.397260273972603</v>
+      </c>
+      <c r="D61">
+        <v>0.73597122302158302</v>
+      </c>
+      <c r="E61">
+        <v>6.5289889740516499E-2</v>
+      </c>
+      <c r="F61">
+        <v>7.3232323232323204E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>0.61</v>
+      </c>
+      <c r="B62">
+        <v>0.721804511278195</v>
+      </c>
+      <c r="C62">
+        <v>0.397260273972603</v>
+      </c>
+      <c r="D62">
+        <v>0.738848920863309</v>
+      </c>
+      <c r="E62">
+        <v>6.6914236374128397E-2</v>
+      </c>
+      <c r="F62">
+        <v>7.3979591836734707E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>0.62</v>
+      </c>
+      <c r="B63">
+        <v>0.72317156527682802</v>
+      </c>
+      <c r="C63">
+        <v>0.38356164383561597</v>
+      </c>
+      <c r="D63">
+        <v>0.74100719424460404</v>
+      </c>
+      <c r="E63">
+        <v>6.1440982071842801E-2</v>
+      </c>
+      <c r="F63">
+        <v>7.2164948453608199E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>0.63</v>
+      </c>
+      <c r="B64">
+        <v>0.72453861927546104</v>
+      </c>
+      <c r="C64">
+        <v>0.36986301369863001</v>
+      </c>
+      <c r="D64">
+        <v>0.74316546762589897</v>
+      </c>
+      <c r="E64">
+        <v>5.5934580851991898E-2</v>
+      </c>
+      <c r="F64">
+        <v>7.03125E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>0.64</v>
+      </c>
+      <c r="B65">
+        <v>0.73000683526999299</v>
+      </c>
+      <c r="C65">
+        <v>0.36986301369863001</v>
+      </c>
+      <c r="D65">
+        <v>0.74892086330935204</v>
+      </c>
+      <c r="E65">
+        <v>5.9185814940003897E-2</v>
+      </c>
+      <c r="F65">
+        <v>7.1808510638297907E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
         <v>0.65</v>
       </c>
-      <c r="J2" s="2">
+      <c r="B66">
+        <v>0.73274094326725903</v>
+      </c>
+      <c r="C66">
+        <v>0.35616438356164398</v>
+      </c>
+      <c r="D66">
+        <v>0.75251798561151095</v>
+      </c>
+      <c r="E66">
+        <v>5.4439858064140298E-2</v>
+      </c>
+      <c r="F66">
+        <v>7.0270270270270302E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>0.66</v>
+      </c>
+      <c r="B67">
+        <v>0.73615857826384101</v>
+      </c>
+      <c r="C67">
+        <v>0.35616438356164398</v>
+      </c>
+      <c r="D67">
+        <v>0.75611510791366898</v>
+      </c>
+      <c r="E67">
+        <v>5.6496515756127602E-2</v>
+      </c>
+      <c r="F67">
+        <v>7.1232876712328794E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>0.67</v>
+      </c>
+      <c r="B68">
+        <v>0.74162679425837297</v>
+      </c>
+      <c r="C68">
+        <v>0.35616438356164398</v>
+      </c>
+      <c r="D68">
+        <v>0.76187050359712205</v>
+      </c>
+      <c r="E68">
+        <v>5.9836688108975501E-2</v>
+      </c>
+      <c r="F68">
+        <v>7.2829131652661097E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>0.68</v>
+      </c>
+      <c r="B69">
+        <v>0.744360902255639</v>
+      </c>
+      <c r="C69">
+        <v>0.34246575342465801</v>
+      </c>
+      <c r="D69">
+        <v>0.76546762589928097</v>
+      </c>
+      <c r="E69">
+        <v>5.5032425341327303E-2</v>
+      </c>
+      <c r="F69">
+        <v>7.1225071225071199E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>0.69</v>
+      </c>
+      <c r="B70">
+        <v>0.74777853725222099</v>
+      </c>
+      <c r="C70">
+        <v>0.31506849315068503</v>
+      </c>
+      <c r="D70">
+        <v>0.77050359712230199</v>
+      </c>
+      <c r="E70">
+        <v>4.4023555165321998E-2</v>
+      </c>
+      <c r="F70">
+        <v>6.7251461988304104E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
         <v>0.7</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="19" spans="1:5" s="2" customFormat="1">
-      <c r="A19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" s="2" customFormat="1">
-      <c r="A70" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71">
+        <v>0.74982911825017096</v>
+      </c>
+      <c r="C71">
+        <v>0.31506849315068503</v>
+      </c>
+      <c r="D71">
+        <v>0.77266187050359703</v>
+      </c>
+      <c r="E71">
+        <v>4.5272633186049301E-2</v>
+      </c>
+      <c r="F71">
+        <v>6.7846607669616504E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
+        <v>0.71</v>
+      </c>
+      <c r="B72">
+        <v>0.75187969924812004</v>
+      </c>
+      <c r="C72">
+        <v>0.31506849315068503</v>
+      </c>
+      <c r="D72">
+        <v>0.77482014388489195</v>
+      </c>
+      <c r="E72">
+        <v>4.6530961723046098E-2</v>
+      </c>
+      <c r="F72">
+        <v>6.8452380952381001E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
+        <v>0.72</v>
+      </c>
+      <c r="B73">
+        <v>0.75256322624743699</v>
+      </c>
+      <c r="C73">
+        <v>0.31506849315068503</v>
+      </c>
+      <c r="D73">
+        <v>0.775539568345324</v>
+      </c>
+      <c r="E73">
+        <v>4.69524994082696E-2</v>
+      </c>
+      <c r="F73">
+        <v>6.8656716417910393E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
+        <v>0.73</v>
+      </c>
+      <c r="B74">
+        <v>0.75666438824333604</v>
+      </c>
+      <c r="C74">
+        <v>0.31506849315068503</v>
+      </c>
+      <c r="D74">
+        <v>0.77985611510791397</v>
+      </c>
+      <c r="E74">
+        <v>4.9504327765929702E-2</v>
+      </c>
+      <c r="F74">
+        <v>6.9908814589665594E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
+        <v>0.74</v>
+      </c>
+      <c r="B75">
+        <v>0.762132604237867</v>
+      </c>
+      <c r="C75">
+        <v>0.31506849315068503</v>
+      </c>
+      <c r="D75">
+        <v>0.78561151079136704</v>
+      </c>
+      <c r="E75">
+        <v>5.2969574696494499E-2</v>
+      </c>
+      <c r="F75">
+        <v>7.1651090342679094E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
+        <v>0.75</v>
+      </c>
+      <c r="B76">
+        <v>0.76896787423103197</v>
+      </c>
+      <c r="C76">
+        <v>0.31506849315068503</v>
+      </c>
+      <c r="D76">
+        <v>0.79280575539568299</v>
+      </c>
+      <c r="E76">
+        <v>5.7409026113767199E-2</v>
+      </c>
+      <c r="F76">
+        <v>7.3954983922829606E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
+        <v>0.76</v>
+      </c>
+      <c r="B77">
+        <v>0.771701982228298</v>
+      </c>
+      <c r="C77">
+        <v>0.301369863013699</v>
+      </c>
+      <c r="D77">
+        <v>0.79640287769784202</v>
+      </c>
+      <c r="E77">
+        <v>5.24061698500378E-2</v>
+      </c>
+      <c r="F77">
+        <v>7.2131147540983598E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
+        <v>0.77</v>
+      </c>
+      <c r="B78">
+        <v>0.77785372522214602</v>
+      </c>
+      <c r="C78">
+        <v>0.28767123287671198</v>
+      </c>
+      <c r="D78">
+        <v>0.80359712230215796</v>
+      </c>
+      <c r="E78">
+        <v>4.9591601465949799E-2</v>
+      </c>
+      <c r="F78">
+        <v>7.1428571428571397E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
+        <v>0.78</v>
+      </c>
+      <c r="B79">
+        <v>0.78058783321941205</v>
+      </c>
+      <c r="C79">
+        <v>0.28767123287671198</v>
+      </c>
+      <c r="D79">
+        <v>0.80647482014388505</v>
+      </c>
+      <c r="E79">
+        <v>5.1418919058108199E-2</v>
+      </c>
+      <c r="F79">
+        <v>7.2413793103448296E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
+        <v>0.79</v>
+      </c>
+      <c r="B80">
+        <v>0.78332194121667797</v>
+      </c>
+      <c r="C80">
+        <v>0.28767123287671198</v>
+      </c>
+      <c r="D80">
+        <v>0.80935251798561103</v>
+      </c>
+      <c r="E80">
+        <v>5.32691347131099E-2</v>
+      </c>
+      <c r="F80">
+        <v>7.3426573426573397E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
+        <v>0.8</v>
+      </c>
+      <c r="B81">
+        <v>0.78742310321257702</v>
+      </c>
+      <c r="C81">
+        <v>0.26027397260273999</v>
+      </c>
+      <c r="D81">
+        <v>0.81510791366906499</v>
+      </c>
+      <c r="E81">
+        <v>4.1952314931604902E-2</v>
+      </c>
+      <c r="F81">
+        <v>6.88405797101449E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
+        <v>0.81</v>
+      </c>
+      <c r="B82">
+        <v>0.78879015721121004</v>
+      </c>
+      <c r="C82">
+        <v>0.26027397260273999</v>
+      </c>
+      <c r="D82">
+        <v>0.81654676258992798</v>
+      </c>
+      <c r="E82">
+        <v>4.2872724247335299E-2</v>
+      </c>
+      <c r="F82">
+        <v>6.9343065693430697E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
+        <v>0.82</v>
+      </c>
+      <c r="B83">
+        <v>0.79289131920710898</v>
+      </c>
+      <c r="C83">
+        <v>0.26027397260273999</v>
+      </c>
+      <c r="D83">
+        <v>0.82086330935251794</v>
+      </c>
+      <c r="E83">
+        <v>4.56707281230187E-2</v>
+      </c>
+      <c r="F83">
+        <v>7.0895522388059698E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
+        <v>0.83</v>
+      </c>
+      <c r="B84">
+        <v>0.79835953520164005</v>
+      </c>
+      <c r="C84">
+        <v>0.26027397260273999</v>
+      </c>
+      <c r="D84">
+        <v>0.82661870503597101</v>
+      </c>
+      <c r="E84">
+        <v>4.9491717232510599E-2</v>
+      </c>
+      <c r="F84">
+        <v>7.3076923076923095E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
+        <v>0.84</v>
+      </c>
+      <c r="B85">
+        <v>0.80177717019822303</v>
+      </c>
+      <c r="C85">
+        <v>0.26027397260273999</v>
+      </c>
+      <c r="D85">
+        <v>0.83021582733812904</v>
+      </c>
+      <c r="E85">
+        <v>5.1935569815684098E-2</v>
+      </c>
+      <c r="F85">
+        <v>7.4509803921568599E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
+        <v>0.85</v>
+      </c>
+      <c r="B86">
+        <v>0.80587833219412197</v>
+      </c>
+      <c r="C86">
+        <v>0.26027397260273999</v>
+      </c>
+      <c r="D86">
+        <v>0.83453237410071901</v>
+      </c>
+      <c r="E86">
+        <v>5.4928434935243298E-2</v>
+      </c>
+      <c r="F86">
+        <v>7.63052208835341E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
+        <v>0.86</v>
+      </c>
+      <c r="B87">
+        <v>0.808612440191388</v>
+      </c>
+      <c r="C87">
+        <v>0.24657534246575299</v>
+      </c>
+      <c r="D87">
+        <v>0.83812949640287804</v>
+      </c>
+      <c r="E87">
+        <v>4.9555743765175103E-2</v>
+      </c>
+      <c r="F87">
+        <v>7.4074074074074098E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
+        <v>0.87</v>
+      </c>
+      <c r="B88">
+        <v>0.81203007518796999</v>
+      </c>
+      <c r="C88">
+        <v>0.24657534246575299</v>
+      </c>
+      <c r="D88">
+        <v>0.84172661870503596</v>
+      </c>
+      <c r="E88">
+        <v>5.20933943591795E-2</v>
+      </c>
+      <c r="F88">
+        <v>7.5630252100840303E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
+        <v>0.88</v>
+      </c>
+      <c r="B89">
+        <v>0.81476418318523602</v>
+      </c>
+      <c r="C89">
+        <v>0.24657534246575299</v>
+      </c>
+      <c r="D89">
+        <v>0.84460431654676305</v>
+      </c>
+      <c r="E89">
+        <v>5.4160532267111199E-2</v>
+      </c>
+      <c r="F89">
+        <v>7.69230769230769E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
+        <v>0.89</v>
+      </c>
+      <c r="B90">
+        <v>0.81954887218045103</v>
+      </c>
+      <c r="C90">
+        <v>0.24657534246575299</v>
+      </c>
+      <c r="D90">
+        <v>0.84964028776978395</v>
+      </c>
+      <c r="E90">
+        <v>5.7861847341548499E-2</v>
+      </c>
+      <c r="F90">
+        <v>7.9295154185022004E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
+        <v>0.9</v>
+      </c>
+      <c r="B91">
+        <v>0.82433356117566603</v>
+      </c>
+      <c r="C91">
+        <v>0.24657534246575299</v>
+      </c>
+      <c r="D91">
+        <v>0.85467625899280597</v>
+      </c>
+      <c r="E91">
+        <v>6.1677083109896398E-2</v>
+      </c>
+      <c r="F91">
+        <v>8.1818181818181804E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
+        <v>0.91</v>
+      </c>
+      <c r="B92">
+        <v>0.82980177717019799</v>
+      </c>
+      <c r="C92">
+        <v>0.24657534246575299</v>
+      </c>
+      <c r="D92">
+        <v>0.86043165467625904</v>
+      </c>
+      <c r="E92">
+        <v>6.6188786954311393E-2</v>
+      </c>
+      <c r="F92">
+        <v>8.4905660377358499E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
+        <v>0.92</v>
+      </c>
+      <c r="B93">
+        <v>0.83390293916609703</v>
+      </c>
+      <c r="C93">
+        <v>0.24657534246575299</v>
+      </c>
+      <c r="D93">
+        <v>0.86474820143884901</v>
+      </c>
+      <c r="E93">
+        <v>6.9687455033057094E-2</v>
+      </c>
+      <c r="F93">
+        <v>8.7378640776699004E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
+        <v>0.93</v>
+      </c>
+      <c r="B94">
+        <v>0.835953520164046</v>
+      </c>
+      <c r="C94">
+        <v>0.232876712328767</v>
+      </c>
+      <c r="D94">
+        <v>0.86762589928057599</v>
+      </c>
+      <c r="E94">
+        <v>6.3565061466016204E-2</v>
+      </c>
+      <c r="F94">
+        <v>8.45771144278607E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
+        <v>0.94</v>
+      </c>
+      <c r="B95">
+        <v>0.83800410116199597</v>
+      </c>
+      <c r="C95">
+        <v>0.20547945205479501</v>
+      </c>
+      <c r="D95">
+        <v>0.87122302158273401</v>
+      </c>
+      <c r="E95">
+        <v>4.9243229146895301E-2</v>
+      </c>
+      <c r="F95">
+        <v>7.7319587628865996E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
+        <v>0.95</v>
+      </c>
+      <c r="B96">
+        <v>0.84073820915926201</v>
+      </c>
+      <c r="C96">
+        <v>0.20547945205479501</v>
+      </c>
+      <c r="D96">
+        <v>0.87410071942445999</v>
+      </c>
+      <c r="E96">
+        <v>5.1544543598319899E-2</v>
+      </c>
+      <c r="F96">
+        <v>7.8947368421052599E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
+        <v>0.96</v>
+      </c>
+      <c r="B97">
+        <v>0.84552289815447701</v>
+      </c>
+      <c r="C97">
+        <v>0.19178082191780799</v>
+      </c>
+      <c r="D97">
+        <v>0.87985611510791395</v>
+      </c>
+      <c r="E97">
+        <v>4.7372089229876103E-2</v>
+      </c>
+      <c r="F97">
+        <v>7.7348066298342497E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
+        <v>0.97</v>
+      </c>
+      <c r="B98">
+        <v>0.84825700615174304</v>
+      </c>
+      <c r="C98">
+        <v>0.150684931506849</v>
+      </c>
+      <c r="D98">
+        <v>0.88489208633093497</v>
+      </c>
+      <c r="E98">
+        <v>2.4110657827583901E-2</v>
+      </c>
+      <c r="F98">
+        <v>6.4327485380116997E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
+        <v>0.98</v>
+      </c>
+      <c r="B99">
+        <v>0.85235816814764198</v>
+      </c>
+      <c r="C99">
+        <v>0.150684931506849</v>
+      </c>
+      <c r="D99">
+        <v>0.88920863309352505</v>
+      </c>
+      <c r="E99">
+        <v>2.7459482943797801E-2</v>
+      </c>
+      <c r="F99">
+        <v>6.6666666666666693E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120">
-        <v>1</v>
+      <c r="B100">
+        <v>0.85509227614490801</v>
+      </c>
+      <c r="C100">
+        <v>0.150684931506849</v>
+      </c>
+      <c r="D100">
+        <v>0.89208633093525203</v>
+      </c>
+      <c r="E100">
+        <v>2.9757912962679899E-2</v>
+      </c>
+      <c r="F100">
+        <v>6.8322981366459604E-2</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A13:E111">
+    <sortCondition ref="A13"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -10784,13 +14473,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -10798,37 +14487,37 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Code/R/Magnan/PerfSearch_Regression_PSF10.xlsx
+++ b/Code/R/Magnan/PerfSearch_Regression_PSF10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TenfoldCV_Coarse" sheetId="6" r:id="rId1"/>
@@ -841,23 +841,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="39715584"/>
-        <c:axId val="40569088"/>
+        <c:axId val="99453568"/>
+        <c:axId val="99468032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39715584"/>
+        <c:axId val="99453568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40569088"/>
+        <c:crossAx val="99468032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="40569088"/>
+        <c:axId val="99468032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -865,7 +865,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39715584"/>
+        <c:crossAx val="99453568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -878,7 +878,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2024,23 +2024,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="116761344"/>
-        <c:axId val="116763648"/>
+        <c:axId val="42132608"/>
+        <c:axId val="42134144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="116761344"/>
+        <c:axId val="42132608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116763648"/>
+        <c:crossAx val="42134144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="116763648"/>
+        <c:axId val="42134144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2048,7 +2048,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116761344"/>
+        <c:crossAx val="42132608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2061,7 +2061,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4599,23 +4599,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="39289600"/>
-        <c:axId val="39255040"/>
+        <c:axId val="82027264"/>
+        <c:axId val="82028800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39289600"/>
+        <c:axId val="82027264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39255040"/>
+        <c:crossAx val="82028800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="39255040"/>
+        <c:axId val="82028800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4623,7 +4623,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39289600"/>
+        <c:crossAx val="82027264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4636,7 +4636,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5035,7 +5035,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5240,9 +5240,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J247"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12434,7 +12432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>

--- a/Code/R/Magnan/PerfSearch_Regression_PSF10.xlsx
+++ b/Code/R/Magnan/PerfSearch_Regression_PSF10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TenfoldCV_Coarse" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>MCC</t>
   </si>
@@ -841,23 +841,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="99453568"/>
-        <c:axId val="99468032"/>
+        <c:axId val="102454400"/>
+        <c:axId val="102455936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99453568"/>
+        <c:axId val="102454400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99468032"/>
+        <c:crossAx val="102455936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99468032"/>
+        <c:axId val="102455936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -865,20 +865,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99453568"/>
+        <c:crossAx val="102454400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2024,23 +2023,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="42132608"/>
-        <c:axId val="42134144"/>
+        <c:axId val="102821888"/>
+        <c:axId val="102823424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42132608"/>
+        <c:axId val="102821888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42134144"/>
+        <c:crossAx val="102823424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42134144"/>
+        <c:axId val="102823424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2048,7 +2047,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42132608"/>
+        <c:crossAx val="102821888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2061,7 +2060,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4599,23 +4598,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="82027264"/>
-        <c:axId val="82028800"/>
+        <c:axId val="102841728"/>
+        <c:axId val="102864000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82027264"/>
+        <c:axId val="102841728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82028800"/>
+        <c:crossAx val="102864000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82028800"/>
+        <c:axId val="102864000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4623,7 +4622,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82027264"/>
+        <c:crossAx val="102841728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4636,7 +4635,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5240,7 +5239,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12430,11 +12429,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12765,7 +12764,7 @@
         <v>6.18181818181818E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>0.16</v>
       </c>
@@ -12785,7 +12784,7 @@
         <v>6.31970260223048E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>0.17</v>
       </c>
@@ -12804,8 +12803,9 @@
       <c r="F18">
         <v>6.1790668348045398E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>0.18</v>
       </c>
@@ -12825,7 +12825,7 @@
         <v>6.1696658097686402E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>0.19</v>
       </c>
@@ -12845,7 +12845,7 @@
         <v>6.1679790026246697E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>0.2</v>
       </c>
@@ -12865,7 +12865,7 @@
         <v>6.2750333778371206E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>0.21</v>
       </c>
@@ -12885,7 +12885,7 @@
         <v>6.3427800269905493E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>0.22</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>6.5006915629322301E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>0.23</v>
       </c>
@@ -12925,7 +12925,7 @@
         <v>6.6572237960339897E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>0.24</v>
       </c>
@@ -12945,7 +12945,7 @@
         <v>6.6091954022988494E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>0.25</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>6.7349926793557793E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>0.26</v>
       </c>
@@ -12985,7 +12985,7 @@
         <v>6.5476190476190493E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>0.27</v>
       </c>
@@ -13005,7 +13005,7 @@
         <v>6.6971080669710803E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>0.28000000000000003</v>
       </c>
@@ -13025,7 +13025,7 @@
         <v>6.7796610169491497E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>0.28999999999999998</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>6.8429237947122898E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>0.3</v>
       </c>
@@ -13065,7 +13065,7 @@
         <v>6.9730586370839898E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>0.31</v>
       </c>
@@ -13085,7 +13085,7 @@
         <v>6.9579288025890002E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>0.32</v>
       </c>
@@ -13105,7 +13105,7 @@
         <v>7.0032573289902297E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>0.33</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>7.1074380165289303E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>0.34</v>
       </c>
@@ -13144,8 +13144,11 @@
       <c r="F35">
         <v>7.2390572390572394E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>0.35</v>
       </c>
@@ -13165,7 +13168,7 @@
         <v>7.2041166380789001E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>0.36</v>
       </c>
@@ -13185,7 +13188,7 @@
         <v>7.0052539404553402E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>0.37</v>
       </c>
@@ -13205,7 +13208,7 @@
         <v>7.1301247771835996E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>0.38</v>
       </c>
@@ -13225,7 +13228,7 @@
         <v>7.2332730560578706E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>0.39</v>
       </c>
@@ -13245,7 +13248,7 @@
         <v>7.4074074074074098E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>0.4</v>
       </c>
@@ -13265,7 +13268,7 @@
         <v>6.8311195445920306E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>0.41</v>
       </c>
@@ -13285,7 +13288,7 @@
         <v>6.8833652007648197E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>0.42</v>
       </c>
@@ -13305,7 +13308,7 @@
         <v>6.7961165048543701E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>0.43</v>
       </c>
@@ -13325,7 +13328,7 @@
         <v>6.9444444444444406E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>0.44</v>
       </c>
@@ -13345,7 +13348,7 @@
         <v>6.8548387096774202E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>0.45</v>
       </c>
@@ -13365,7 +13368,7 @@
         <v>6.8965517241379296E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>0.46</v>
       </c>
@@ -13385,7 +13388,7 @@
         <v>7.0247933884297495E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>0.47</v>
       </c>
@@ -13405,7 +13408,7 @@
         <v>6.9767441860465101E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>0.48</v>
       </c>
@@ -13425,7 +13428,7 @@
         <v>7.09677419354839E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>0.49</v>
       </c>
@@ -13445,7 +13448,7 @@
         <v>7.0021881838074396E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>0.5</v>
       </c>
@@ -13465,7 +13468,7 @@
         <v>7.1111111111111097E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="2" customFormat="1">
+    <row r="52" spans="1:7" s="2" customFormat="1">
       <c r="A52">
         <v>0.51</v>
       </c>
@@ -13484,8 +13487,9 @@
       <c r="F52">
         <v>7.2072072072072099E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52"/>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>0.52</v>
       </c>
@@ -13505,7 +13509,7 @@
         <v>7.1264367816091995E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>0.53</v>
       </c>
@@ -13525,7 +13529,7 @@
         <v>7.1593533487297897E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>0.54</v>
       </c>
@@ -13545,7 +13549,7 @@
         <v>7.0257611241217793E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>0.55000000000000004</v>
       </c>
@@ -13565,7 +13569,7 @@
         <v>7.09219858156028E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>0.56000000000000005</v>
       </c>
@@ -13585,7 +13589,7 @@
         <v>6.9711538461538505E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>0.56999999999999995</v>
       </c>
@@ -13605,7 +13609,7 @@
         <v>7.0904645476772596E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>0.57999999999999996</v>
       </c>
@@ -13625,7 +13629,7 @@
         <v>7.1428571428571397E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>0.59</v>
       </c>
@@ -13645,7 +13649,7 @@
         <v>7.2499999999999995E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>0.6</v>
       </c>
@@ -13665,7 +13669,7 @@
         <v>7.3232323232323204E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>0.61</v>
       </c>
@@ -13685,7 +13689,7 @@
         <v>7.3979591836734707E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>0.62</v>
       </c>
@@ -13705,7 +13709,7 @@
         <v>7.2164948453608199E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>0.63</v>
       </c>
@@ -14446,8 +14450,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A13:E111">
-    <sortCondition ref="A13"/>
+  <sortState ref="A2:G100">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
